--- a/inventory_project/inventory_app/static/inventory_app/Inventory.xlsx
+++ b/inventory_project/inventory_app/static/inventory_app/Inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="1060">
   <si>
     <t>Part_Name</t>
   </si>
@@ -3187,7 +3187,13 @@
     <t>TRAILBLAZER</t>
   </si>
   <si>
-    <t>29-03-2024 22:49</t>
+    <t>31-03-2024 01:34</t>
+  </si>
+  <si>
+    <t>31-03-2024 01:35</t>
+  </si>
+  <si>
+    <t>31-03-2024 11:16</t>
   </si>
 </sst>
 </file>
@@ -3549,7 +3555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F661"/>
+  <dimension ref="A1:F663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16775,6 +16781,46 @@
         <v>1057</v>
       </c>
     </row>
+    <row r="662" spans="1:6">
+      <c r="A662" t="s">
+        <v>394</v>
+      </c>
+      <c r="B662" t="s">
+        <v>394</v>
+      </c>
+      <c r="C662" t="s">
+        <v>394</v>
+      </c>
+      <c r="D662" t="s">
+        <v>394</v>
+      </c>
+      <c r="E662">
+        <v>66</v>
+      </c>
+      <c r="F662" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6">
+      <c r="A663" t="s">
+        <v>394</v>
+      </c>
+      <c r="B663">
+        <v>2200</v>
+      </c>
+      <c r="C663" t="s">
+        <v>394</v>
+      </c>
+      <c r="D663" t="s">
+        <v>394</v>
+      </c>
+      <c r="E663">
+        <v>792</v>
+      </c>
+      <c r="F663" t="s">
+        <v>1059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inventory_project/inventory_app/static/inventory_app/Inventory.xlsx
+++ b/inventory_project/inventory_app/static/inventory_app/Inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1061">
   <si>
     <t>Part_Name</t>
   </si>
@@ -1201,6 +1201,9 @@
     <t>test</t>
   </si>
   <si>
+    <t>test1</t>
+  </si>
+  <si>
     <t>CVB005 NA</t>
   </si>
   <si>
@@ -3191,6 +3194,9 @@
   </si>
   <si>
     <t>01-04-2024 18:08</t>
+  </si>
+  <si>
+    <t>06-04-2024 11:59</t>
   </si>
 </sst>
 </file>
@@ -3552,7 +3558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F662"/>
+  <dimension ref="A1:F663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3583,10 +3589,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D2">
         <v>96</v>
@@ -3603,10 +3609,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D3">
         <v>67</v>
@@ -3623,10 +3629,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D4">
         <v>66</v>
@@ -3643,10 +3649,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D5">
         <v>80</v>
@@ -3663,10 +3669,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -3683,10 +3689,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C7" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D7">
         <v>73</v>
@@ -3703,10 +3709,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C8" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3723,10 +3729,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C9" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -3743,10 +3749,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C10" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D10">
         <v>64</v>
@@ -3763,10 +3769,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C11" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3783,10 +3789,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D12">
         <v>93</v>
@@ -3803,10 +3809,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C13" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -3823,10 +3829,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C14" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3843,10 +3849,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C15" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D15">
         <v>80</v>
@@ -3863,10 +3869,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C16" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D16">
         <v>72</v>
@@ -3883,10 +3889,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C17" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D17">
         <v>83</v>
@@ -3903,10 +3909,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C18" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D18">
         <v>83</v>
@@ -3923,10 +3929,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C19" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D19">
         <v>76</v>
@@ -3943,10 +3949,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C20" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D20">
         <v>44</v>
@@ -3963,10 +3969,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C21" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D21">
         <v>93</v>
@@ -3983,10 +3989,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -4003,10 +4009,10 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C23" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D23">
         <v>62</v>
@@ -4023,10 +4029,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C24" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D24">
         <v>34</v>
@@ -4043,10 +4049,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C25" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -4063,10 +4069,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C26" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D26">
         <v>62</v>
@@ -4083,10 +4089,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C27" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D27">
         <v>58</v>
@@ -4103,10 +4109,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C28" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D28">
         <v>60</v>
@@ -4123,10 +4129,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C29" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D29">
         <v>48</v>
@@ -4143,10 +4149,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C30" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D30">
         <v>79</v>
@@ -4163,10 +4169,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C31" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D31">
         <v>83</v>
@@ -4183,10 +4189,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C32" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D32">
         <v>45</v>
@@ -4203,10 +4209,10 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C33" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D33">
         <v>84</v>
@@ -4223,10 +4229,10 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C34" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D34">
         <v>13</v>
@@ -4243,10 +4249,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C35" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D35">
         <v>49</v>
@@ -4263,10 +4269,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C36" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D36">
         <v>59</v>
@@ -4283,10 +4289,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C37" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D37">
         <v>68</v>
@@ -4303,10 +4309,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C38" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D38">
         <v>88</v>
@@ -4323,10 +4329,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C39" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D39">
         <v>54</v>
@@ -4343,10 +4349,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C40" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D40">
         <v>80</v>
@@ -4363,10 +4369,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C41" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D41">
         <v>33</v>
@@ -4383,10 +4389,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C42" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D42">
         <v>35</v>
@@ -4403,10 +4409,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C43" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -4423,10 +4429,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C44" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D44">
         <v>58</v>
@@ -4443,10 +4449,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C45" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D45">
         <v>68</v>
@@ -4463,10 +4469,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C46" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D46">
         <v>67</v>
@@ -4483,10 +4489,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C47" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -4503,10 +4509,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C48" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D48">
         <v>50</v>
@@ -4523,10 +4529,10 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C49" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -4543,10 +4549,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C50" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D50">
         <v>40</v>
@@ -4563,10 +4569,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C51" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D51">
         <v>37</v>
@@ -4583,10 +4589,10 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C52" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D52">
         <v>18</v>
@@ -4603,10 +4609,10 @@
         <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C53" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D53">
         <v>25</v>
@@ -4623,10 +4629,10 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C54" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D54">
         <v>24</v>
@@ -4643,10 +4649,10 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C55" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D55">
         <v>62</v>
@@ -4663,10 +4669,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C56" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -4683,10 +4689,10 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C57" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D57">
         <v>64</v>
@@ -4703,10 +4709,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C58" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D58">
         <v>30</v>
@@ -4723,10 +4729,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C59" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D59">
         <v>87</v>
@@ -4743,10 +4749,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C60" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -4763,10 +4769,10 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C61" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D61">
         <v>80</v>
@@ -4783,10 +4789,10 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C62" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D62">
         <v>99</v>
@@ -4803,10 +4809,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C63" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D63">
         <v>47</v>
@@ -4823,10 +4829,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C64" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D64">
         <v>31</v>
@@ -4843,10 +4849,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C65" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D65">
         <v>59</v>
@@ -4863,10 +4869,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C66" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D66">
         <v>40</v>
@@ -4883,10 +4889,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C67" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D67">
         <v>39</v>
@@ -4903,10 +4909,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C68" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D68">
         <v>70</v>
@@ -4923,10 +4929,10 @@
         <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C69" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D69">
         <v>56</v>
@@ -4943,10 +4949,10 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C70" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D70">
         <v>72</v>
@@ -4963,10 +4969,10 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C71" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4983,10 +4989,10 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C72" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D72">
         <v>16</v>
@@ -5003,10 +5009,10 @@
         <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C73" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -5023,10 +5029,10 @@
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C74" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D74">
         <v>56</v>
@@ -5043,10 +5049,10 @@
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C75" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D75">
         <v>14</v>
@@ -5063,10 +5069,10 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C76" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D76">
         <v>49</v>
@@ -5083,10 +5089,10 @@
         <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C77" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D77">
         <v>74</v>
@@ -5103,10 +5109,10 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C78" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D78">
         <v>35</v>
@@ -5123,10 +5129,10 @@
         <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C79" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D79">
         <v>21</v>
@@ -5143,10 +5149,10 @@
         <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C80" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D80">
         <v>36</v>
@@ -5163,10 +5169,10 @@
         <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C81" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D81">
         <v>39</v>
@@ -5183,10 +5189,10 @@
         <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C82" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D82">
         <v>9</v>
@@ -5203,10 +5209,10 @@
         <v>52</v>
       </c>
       <c r="B83" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C83" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D83">
         <v>14</v>
@@ -5223,10 +5229,10 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C84" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D84">
         <v>32</v>
@@ -5243,10 +5249,10 @@
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C85" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -5263,10 +5269,10 @@
         <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C86" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -5283,10 +5289,10 @@
         <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C87" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D87">
         <v>98</v>
@@ -5303,10 +5309,10 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C88" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D88">
         <v>31</v>
@@ -5323,10 +5329,10 @@
         <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C89" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D89">
         <v>56</v>
@@ -5343,10 +5349,10 @@
         <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C90" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D90">
         <v>36</v>
@@ -5363,10 +5369,10 @@
         <v>75</v>
       </c>
       <c r="B91" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C91" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D91">
         <v>45</v>
@@ -5383,10 +5389,10 @@
         <v>76</v>
       </c>
       <c r="B92" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C92" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D92">
         <v>69</v>
@@ -5403,10 +5409,10 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C93" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D93">
         <v>47</v>
@@ -5423,10 +5429,10 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C94" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D94">
         <v>34</v>
@@ -5443,10 +5449,10 @@
         <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C95" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D95">
         <v>9</v>
@@ -5463,10 +5469,10 @@
         <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C96" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D96">
         <v>67</v>
@@ -5483,10 +5489,10 @@
         <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C97" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D97">
         <v>23</v>
@@ -5503,10 +5509,10 @@
         <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C98" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D98">
         <v>48</v>
@@ -5523,10 +5529,10 @@
         <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C99" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D99">
         <v>20</v>
@@ -5543,10 +5549,10 @@
         <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C100" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D100">
         <v>79</v>
@@ -5563,10 +5569,10 @@
         <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C101" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D101">
         <v>98</v>
@@ -5583,10 +5589,10 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C102" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D102">
         <v>58</v>
@@ -5603,10 +5609,10 @@
         <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C103" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D103">
         <v>57</v>
@@ -5623,10 +5629,10 @@
         <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C104" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D104">
         <v>84</v>
@@ -5643,10 +5649,10 @@
         <v>85</v>
       </c>
       <c r="B105" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C105" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D105">
         <v>95</v>
@@ -5663,10 +5669,10 @@
         <v>86</v>
       </c>
       <c r="B106" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C106" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D106">
         <v>11</v>
@@ -5683,10 +5689,10 @@
         <v>87</v>
       </c>
       <c r="B107" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C107" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D107">
         <v>58</v>
@@ -5703,10 +5709,10 @@
         <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C108" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -5723,10 +5729,10 @@
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C109" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D109">
         <v>75</v>
@@ -5743,10 +5749,10 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C110" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D110">
         <v>35</v>
@@ -5763,10 +5769,10 @@
         <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C111" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D111">
         <v>87</v>
@@ -5783,10 +5789,10 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C112" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -5803,10 +5809,10 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C113" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D113">
         <v>15</v>
@@ -5823,10 +5829,10 @@
         <v>91</v>
       </c>
       <c r="B114" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C114" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D114">
         <v>28</v>
@@ -5843,10 +5849,10 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C115" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D115">
         <v>81</v>
@@ -5863,10 +5869,10 @@
         <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C116" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D116">
         <v>100</v>
@@ -5883,10 +5889,10 @@
         <v>52</v>
       </c>
       <c r="B117" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C117" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D117">
         <v>81</v>
@@ -5903,10 +5909,10 @@
         <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C118" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D118">
         <v>78</v>
@@ -5923,10 +5929,10 @@
         <v>94</v>
       </c>
       <c r="B119" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C119" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D119">
         <v>100</v>
@@ -5943,10 +5949,10 @@
         <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C120" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D120">
         <v>9</v>
@@ -5963,10 +5969,10 @@
         <v>26</v>
       </c>
       <c r="B121" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C121" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D121">
         <v>45</v>
@@ -5983,10 +5989,10 @@
         <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C122" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D122">
         <v>64</v>
@@ -6003,10 +6009,10 @@
         <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C123" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D123">
         <v>58</v>
@@ -6023,10 +6029,10 @@
         <v>95</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C124" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D124">
         <v>60</v>
@@ -6043,10 +6049,10 @@
         <v>96</v>
       </c>
       <c r="B125" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C125" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D125">
         <v>94</v>
@@ -6063,10 +6069,10 @@
         <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C126" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D126">
         <v>50</v>
@@ -6083,10 +6089,10 @@
         <v>98</v>
       </c>
       <c r="B127" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C127" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D127">
         <v>70</v>
@@ -6103,10 +6109,10 @@
         <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C128" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D128">
         <v>10</v>
@@ -6123,10 +6129,10 @@
         <v>100</v>
       </c>
       <c r="B129" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C129" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D129">
         <v>86</v>
@@ -6143,10 +6149,10 @@
         <v>101</v>
       </c>
       <c r="B130" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C130" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D130">
         <v>27</v>
@@ -6163,10 +6169,10 @@
         <v>102</v>
       </c>
       <c r="B131" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C131" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D131">
         <v>79</v>
@@ -6183,10 +6189,10 @@
         <v>103</v>
       </c>
       <c r="B132" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C132" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D132">
         <v>69</v>
@@ -6203,10 +6209,10 @@
         <v>104</v>
       </c>
       <c r="B133" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C133" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D133">
         <v>41</v>
@@ -6223,10 +6229,10 @@
         <v>105</v>
       </c>
       <c r="B134" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C134" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D134">
         <v>27</v>
@@ -6243,10 +6249,10 @@
         <v>106</v>
       </c>
       <c r="B135" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C135" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D135">
         <v>39</v>
@@ -6263,10 +6269,10 @@
         <v>107</v>
       </c>
       <c r="B136" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C136" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D136">
         <v>100</v>
@@ -6283,10 +6289,10 @@
         <v>108</v>
       </c>
       <c r="B137" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C137" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D137">
         <v>42</v>
@@ -6303,10 +6309,10 @@
         <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C138" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D138">
         <v>73</v>
@@ -6323,10 +6329,10 @@
         <v>110</v>
       </c>
       <c r="B139" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C139" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D139">
         <v>25</v>
@@ -6343,10 +6349,10 @@
         <v>111</v>
       </c>
       <c r="B140" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C140" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D140">
         <v>44</v>
@@ -6363,10 +6369,10 @@
         <v>112</v>
       </c>
       <c r="B141" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C141" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D141">
         <v>82</v>
@@ -6383,10 +6389,10 @@
         <v>113</v>
       </c>
       <c r="B142" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C142" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D142">
         <v>29</v>
@@ -6403,10 +6409,10 @@
         <v>114</v>
       </c>
       <c r="B143" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C143" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -6423,10 +6429,10 @@
         <v>115</v>
       </c>
       <c r="B144" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C144" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D144">
         <v>21</v>
@@ -6443,10 +6449,10 @@
         <v>116</v>
       </c>
       <c r="B145" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C145" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D145">
         <v>29</v>
@@ -6463,10 +6469,10 @@
         <v>95</v>
       </c>
       <c r="B146" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C146" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D146">
         <v>78</v>
@@ -6483,10 +6489,10 @@
         <v>117</v>
       </c>
       <c r="B147" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C147" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D147">
         <v>61</v>
@@ -6503,10 +6509,10 @@
         <v>118</v>
       </c>
       <c r="B148" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C148" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D148">
         <v>26</v>
@@ -6523,10 +6529,10 @@
         <v>119</v>
       </c>
       <c r="B149" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C149" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -6543,10 +6549,10 @@
         <v>120</v>
       </c>
       <c r="B150" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C150" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D150">
         <v>35</v>
@@ -6563,10 +6569,10 @@
         <v>121</v>
       </c>
       <c r="B151" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C151" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D151">
         <v>46</v>
@@ -6583,10 +6589,10 @@
         <v>122</v>
       </c>
       <c r="B152" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C152" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D152">
         <v>69</v>
@@ -6603,10 +6609,10 @@
         <v>123</v>
       </c>
       <c r="B153" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C153" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D153">
         <v>19</v>
@@ -6623,10 +6629,10 @@
         <v>124</v>
       </c>
       <c r="B154" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C154" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D154">
         <v>8</v>
@@ -6643,10 +6649,10 @@
         <v>125</v>
       </c>
       <c r="B155" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C155" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D155">
         <v>39</v>
@@ -6663,10 +6669,10 @@
         <v>126</v>
       </c>
       <c r="B156" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C156" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D156">
         <v>90</v>
@@ -6683,10 +6689,10 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C157" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D157">
         <v>53</v>
@@ -6703,10 +6709,10 @@
         <v>127</v>
       </c>
       <c r="B158" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C158" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D158">
         <v>99</v>
@@ -6723,10 +6729,10 @@
         <v>128</v>
       </c>
       <c r="B159" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C159" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D159">
         <v>32</v>
@@ -6743,10 +6749,10 @@
         <v>71</v>
       </c>
       <c r="B160" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C160" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -6763,10 +6769,10 @@
         <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C161" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D161">
         <v>36</v>
@@ -6783,10 +6789,10 @@
         <v>129</v>
       </c>
       <c r="B162" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C162" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D162">
         <v>67</v>
@@ -6803,10 +6809,10 @@
         <v>130</v>
       </c>
       <c r="B163" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C163" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D163">
         <v>39</v>
@@ -6823,10 +6829,10 @@
         <v>131</v>
       </c>
       <c r="B164" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C164" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D164">
         <v>97</v>
@@ -6843,10 +6849,10 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C165" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D165">
         <v>8</v>
@@ -6863,10 +6869,10 @@
         <v>132</v>
       </c>
       <c r="B166" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C166" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D166">
         <v>49</v>
@@ -6883,10 +6889,10 @@
         <v>133</v>
       </c>
       <c r="B167" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C167" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D167">
         <v>19</v>
@@ -6903,10 +6909,10 @@
         <v>134</v>
       </c>
       <c r="B168" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C168" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D168">
         <v>30</v>
@@ -6923,10 +6929,10 @@
         <v>135</v>
       </c>
       <c r="B169" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C169" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D169">
         <v>100</v>
@@ -6943,10 +6949,10 @@
         <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C170" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -6963,10 +6969,10 @@
         <v>137</v>
       </c>
       <c r="B171" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C171" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D171">
         <v>59</v>
@@ -6983,10 +6989,10 @@
         <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C172" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D172">
         <v>55</v>
@@ -7003,10 +7009,10 @@
         <v>139</v>
       </c>
       <c r="B173" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C173" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D173">
         <v>14</v>
@@ -7023,10 +7029,10 @@
         <v>52</v>
       </c>
       <c r="B174" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C174" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D174">
         <v>9</v>
@@ -7043,10 +7049,10 @@
         <v>53</v>
       </c>
       <c r="B175" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C175" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D175">
         <v>39</v>
@@ -7063,10 +7069,10 @@
         <v>140</v>
       </c>
       <c r="B176" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C176" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D176">
         <v>73</v>
@@ -7083,10 +7089,10 @@
         <v>141</v>
       </c>
       <c r="B177" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C177" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D177">
         <v>13</v>
@@ -7103,10 +7109,10 @@
         <v>142</v>
       </c>
       <c r="B178" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C178" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D178">
         <v>31</v>
@@ -7123,10 +7129,10 @@
         <v>64</v>
       </c>
       <c r="B179" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C179" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D179">
         <v>83</v>
@@ -7143,10 +7149,10 @@
         <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C180" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D180">
         <v>36</v>
@@ -7163,10 +7169,10 @@
         <v>104</v>
       </c>
       <c r="B181" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C181" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D181">
         <v>48</v>
@@ -7183,10 +7189,10 @@
         <v>105</v>
       </c>
       <c r="B182" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C182" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D182">
         <v>41</v>
@@ -7203,10 +7209,10 @@
         <v>106</v>
       </c>
       <c r="B183" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C183" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D183">
         <v>76</v>
@@ -7223,10 +7229,10 @@
         <v>107</v>
       </c>
       <c r="B184" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C184" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D184">
         <v>15</v>
@@ -7243,10 +7249,10 @@
         <v>143</v>
       </c>
       <c r="B185" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C185" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D185">
         <v>96</v>
@@ -7263,10 +7269,10 @@
         <v>95</v>
       </c>
       <c r="B186" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C186" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D186">
         <v>32</v>
@@ -7283,10 +7289,10 @@
         <v>117</v>
       </c>
       <c r="B187" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C187" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D187">
         <v>62</v>
@@ -7303,10 +7309,10 @@
         <v>144</v>
       </c>
       <c r="B188" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C188" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D188">
         <v>25</v>
@@ -7323,10 +7329,10 @@
         <v>145</v>
       </c>
       <c r="B189" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C189" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D189">
         <v>77</v>
@@ -7343,10 +7349,10 @@
         <v>146</v>
       </c>
       <c r="B190" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C190" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D190">
         <v>17</v>
@@ -7363,10 +7369,10 @@
         <v>147</v>
       </c>
       <c r="B191" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C191" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D191">
         <v>45</v>
@@ -7383,10 +7389,10 @@
         <v>148</v>
       </c>
       <c r="B192" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C192" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D192">
         <v>68</v>
@@ -7403,10 +7409,10 @@
         <v>149</v>
       </c>
       <c r="B193" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C193" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D193">
         <v>86</v>
@@ -7423,10 +7429,10 @@
         <v>150</v>
       </c>
       <c r="B194" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C194" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D194">
         <v>70</v>
@@ -7443,10 +7449,10 @@
         <v>151</v>
       </c>
       <c r="B195" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C195" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D195">
         <v>56</v>
@@ -7463,10 +7469,10 @@
         <v>74</v>
       </c>
       <c r="B196" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C196" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D196">
         <v>48</v>
@@ -7483,10 +7489,10 @@
         <v>152</v>
       </c>
       <c r="B197" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C197" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D197">
         <v>89</v>
@@ -7503,10 +7509,10 @@
         <v>153</v>
       </c>
       <c r="B198" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C198" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D198">
         <v>82</v>
@@ -7523,10 +7529,10 @@
         <v>138</v>
       </c>
       <c r="B199" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C199" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D199">
         <v>24</v>
@@ -7543,10 +7549,10 @@
         <v>139</v>
       </c>
       <c r="B200" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C200" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D200">
         <v>16</v>
@@ -7563,10 +7569,10 @@
         <v>154</v>
       </c>
       <c r="B201" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C201" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D201">
         <v>31</v>
@@ -7583,10 +7589,10 @@
         <v>155</v>
       </c>
       <c r="B202" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C202" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D202">
         <v>97</v>
@@ -7603,10 +7609,10 @@
         <v>156</v>
       </c>
       <c r="B203" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C203" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D203">
         <v>33</v>
@@ -7623,10 +7629,10 @@
         <v>156</v>
       </c>
       <c r="B204" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C204" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D204">
         <v>88</v>
@@ -7643,10 +7649,10 @@
         <v>66</v>
       </c>
       <c r="B205" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C205" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D205">
         <v>37</v>
@@ -7663,10 +7669,10 @@
         <v>65</v>
       </c>
       <c r="B206" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C206" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D206">
         <v>75</v>
@@ -7683,10 +7689,10 @@
         <v>157</v>
       </c>
       <c r="B207" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C207" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D207">
         <v>12</v>
@@ -7703,10 +7709,10 @@
         <v>158</v>
       </c>
       <c r="B208" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C208" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D208">
         <v>56</v>
@@ -7723,10 +7729,10 @@
         <v>104</v>
       </c>
       <c r="B209" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C209" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D209">
         <v>23</v>
@@ -7743,10 +7749,10 @@
         <v>105</v>
       </c>
       <c r="B210" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C210" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D210">
         <v>49</v>
@@ -7763,10 +7769,10 @@
         <v>106</v>
       </c>
       <c r="B211" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C211" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D211">
         <v>27</v>
@@ -7783,10 +7789,10 @@
         <v>107</v>
       </c>
       <c r="B212" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C212" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D212">
         <v>74</v>
@@ -7803,10 +7809,10 @@
         <v>159</v>
       </c>
       <c r="B213" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C213" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D213">
         <v>67</v>
@@ -7823,10 +7829,10 @@
         <v>160</v>
       </c>
       <c r="B214" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C214" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D214">
         <v>48</v>
@@ -7843,10 +7849,10 @@
         <v>108</v>
       </c>
       <c r="B215" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C215" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D215">
         <v>42</v>
@@ -7863,10 +7869,10 @@
         <v>161</v>
       </c>
       <c r="B216" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C216" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D216">
         <v>13</v>
@@ -7883,10 +7889,10 @@
         <v>162</v>
       </c>
       <c r="B217" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C217" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D217">
         <v>73</v>
@@ -7903,10 +7909,10 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C218" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D218">
         <v>46</v>
@@ -7923,10 +7929,10 @@
         <v>163</v>
       </c>
       <c r="B219" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C219" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D219">
         <v>9</v>
@@ -7943,10 +7949,10 @@
         <v>164</v>
       </c>
       <c r="B220" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C220" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D220">
         <v>31</v>
@@ -7963,10 +7969,10 @@
         <v>165</v>
       </c>
       <c r="B221" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C221" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D221">
         <v>50</v>
@@ -7983,10 +7989,10 @@
         <v>166</v>
       </c>
       <c r="B222" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C222" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D222">
         <v>28</v>
@@ -8003,10 +8009,10 @@
         <v>167</v>
       </c>
       <c r="B223" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C223" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D223">
         <v>82</v>
@@ -8023,10 +8029,10 @@
         <v>168</v>
       </c>
       <c r="B224" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C224" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D224">
         <v>89</v>
@@ -8043,10 +8049,10 @@
         <v>169</v>
       </c>
       <c r="B225" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C225" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D225">
         <v>67</v>
@@ -8063,10 +8069,10 @@
         <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C226" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D226">
         <v>91</v>
@@ -8083,10 +8089,10 @@
         <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C227" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -8103,10 +8109,10 @@
         <v>170</v>
       </c>
       <c r="B228" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C228" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D228">
         <v>53</v>
@@ -8123,10 +8129,10 @@
         <v>171</v>
       </c>
       <c r="B229" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C229" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D229">
         <v>65</v>
@@ -8143,10 +8149,10 @@
         <v>71</v>
       </c>
       <c r="B230" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C230" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D230">
         <v>67</v>
@@ -8163,10 +8169,10 @@
         <v>70</v>
       </c>
       <c r="B231" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C231" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D231">
         <v>62</v>
@@ -8183,10 +8189,10 @@
         <v>52</v>
       </c>
       <c r="B232" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C232" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D232">
         <v>57</v>
@@ -8203,10 +8209,10 @@
         <v>53</v>
       </c>
       <c r="B233" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C233" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D233">
         <v>10</v>
@@ -8223,10 +8229,10 @@
         <v>37</v>
       </c>
       <c r="B234" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C234" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D234">
         <v>37</v>
@@ -8243,10 +8249,10 @@
         <v>38</v>
       </c>
       <c r="B235" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C235" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D235">
         <v>90</v>
@@ -8263,10 +8269,10 @@
         <v>37</v>
       </c>
       <c r="B236" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C236" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D236">
         <v>7</v>
@@ -8283,10 +8289,10 @@
         <v>38</v>
       </c>
       <c r="B237" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C237" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D237">
         <v>56</v>
@@ -8303,10 +8309,10 @@
         <v>37</v>
       </c>
       <c r="B238" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C238" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D238">
         <v>50</v>
@@ -8323,10 +8329,10 @@
         <v>38</v>
       </c>
       <c r="B239" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C239" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D239">
         <v>26</v>
@@ -8343,10 +8349,10 @@
         <v>172</v>
       </c>
       <c r="B240" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C240" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D240">
         <v>69</v>
@@ -8363,10 +8369,10 @@
         <v>173</v>
       </c>
       <c r="B241" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C241" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D241">
         <v>6</v>
@@ -8383,10 +8389,10 @@
         <v>174</v>
       </c>
       <c r="B242" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C242" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D242">
         <v>90</v>
@@ -8403,10 +8409,10 @@
         <v>84</v>
       </c>
       <c r="B243" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C243" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D243">
         <v>62</v>
@@ -8423,10 +8429,10 @@
         <v>83</v>
       </c>
       <c r="B244" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C244" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D244">
         <v>94</v>
@@ -8443,10 +8449,10 @@
         <v>175</v>
       </c>
       <c r="B245" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C245" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D245">
         <v>85</v>
@@ -8463,10 +8469,10 @@
         <v>176</v>
       </c>
       <c r="B246" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C246" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D246">
         <v>69</v>
@@ -8483,10 +8489,10 @@
         <v>158</v>
       </c>
       <c r="B247" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C247" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D247">
         <v>40</v>
@@ -8503,10 +8509,10 @@
         <v>157</v>
       </c>
       <c r="B248" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C248" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D248">
         <v>93</v>
@@ -8523,10 +8529,10 @@
         <v>64</v>
       </c>
       <c r="B249" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C249" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D249">
         <v>43</v>
@@ -8543,10 +8549,10 @@
         <v>44</v>
       </c>
       <c r="B250" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C250" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D250">
         <v>31</v>
@@ -8563,10 +8569,10 @@
         <v>177</v>
       </c>
       <c r="B251" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C251" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D251">
         <v>92</v>
@@ -8583,10 +8589,10 @@
         <v>51</v>
       </c>
       <c r="B252" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C252" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D252">
         <v>45</v>
@@ -8603,10 +8609,10 @@
         <v>178</v>
       </c>
       <c r="B253" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C253" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D253">
         <v>66</v>
@@ -8623,10 +8629,10 @@
         <v>179</v>
       </c>
       <c r="B254" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C254" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D254">
         <v>93</v>
@@ -8643,10 +8649,10 @@
         <v>180</v>
       </c>
       <c r="B255" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C255" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D255">
         <v>15</v>
@@ -8663,10 +8669,10 @@
         <v>13</v>
       </c>
       <c r="B256" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C256" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D256">
         <v>31</v>
@@ -8683,10 +8689,10 @@
         <v>14</v>
       </c>
       <c r="B257" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C257" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D257">
         <v>12</v>
@@ -8703,10 +8709,10 @@
         <v>181</v>
       </c>
       <c r="B258" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C258" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D258">
         <v>27</v>
@@ -8723,10 +8729,10 @@
         <v>182</v>
       </c>
       <c r="B259" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C259" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D259">
         <v>99</v>
@@ -8743,10 +8749,10 @@
         <v>52</v>
       </c>
       <c r="B260" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C260" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D260">
         <v>45</v>
@@ -8763,10 +8769,10 @@
         <v>53</v>
       </c>
       <c r="B261" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C261" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D261">
         <v>74</v>
@@ -8783,10 +8789,10 @@
         <v>37</v>
       </c>
       <c r="B262" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C262" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D262">
         <v>58</v>
@@ -8803,10 +8809,10 @@
         <v>38</v>
       </c>
       <c r="B263" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C263" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D263">
         <v>55</v>
@@ -8823,10 +8829,10 @@
         <v>183</v>
       </c>
       <c r="B264" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C264" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D264">
         <v>92</v>
@@ -8843,10 +8849,10 @@
         <v>184</v>
       </c>
       <c r="B265" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C265" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D265">
         <v>70</v>
@@ -8863,10 +8869,10 @@
         <v>104</v>
       </c>
       <c r="B266" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C266" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D266">
         <v>95</v>
@@ -8883,10 +8889,10 @@
         <v>105</v>
       </c>
       <c r="B267" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C267" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D267">
         <v>84</v>
@@ -8903,10 +8909,10 @@
         <v>106</v>
       </c>
       <c r="B268" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C268" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D268">
         <v>43</v>
@@ -8923,10 +8929,10 @@
         <v>107</v>
       </c>
       <c r="B269" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C269" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D269">
         <v>71</v>
@@ -8943,10 +8949,10 @@
         <v>108</v>
       </c>
       <c r="B270" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C270" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D270">
         <v>23</v>
@@ -8963,10 +8969,10 @@
         <v>185</v>
       </c>
       <c r="B271" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C271" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D271">
         <v>43</v>
@@ -8983,10 +8989,10 @@
         <v>186</v>
       </c>
       <c r="B272" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C272" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D272">
         <v>91</v>
@@ -9003,10 +9009,10 @@
         <v>187</v>
       </c>
       <c r="B273" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C273" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D273">
         <v>79</v>
@@ -9023,10 +9029,10 @@
         <v>188</v>
       </c>
       <c r="B274" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C274" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D274">
         <v>32</v>
@@ -9043,10 +9049,10 @@
         <v>189</v>
       </c>
       <c r="B275" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C275" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D275">
         <v>97</v>
@@ -9063,10 +9069,10 @@
         <v>190</v>
       </c>
       <c r="B276" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C276" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D276">
         <v>15</v>
@@ -9083,10 +9089,10 @@
         <v>191</v>
       </c>
       <c r="B277" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C277" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D277">
         <v>97</v>
@@ -9103,10 +9109,10 @@
         <v>192</v>
       </c>
       <c r="B278" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C278" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D278">
         <v>88</v>
@@ -9123,10 +9129,10 @@
         <v>193</v>
       </c>
       <c r="B279" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C279" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D279">
         <v>73</v>
@@ -9143,10 +9149,10 @@
         <v>13</v>
       </c>
       <c r="B280" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C280" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D280">
         <v>50</v>
@@ -9163,10 +9169,10 @@
         <v>14</v>
       </c>
       <c r="B281" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C281" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D281">
         <v>45</v>
@@ -9183,10 +9189,10 @@
         <v>37</v>
       </c>
       <c r="B282" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C282" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D282">
         <v>69</v>
@@ -9203,10 +9209,10 @@
         <v>38</v>
       </c>
       <c r="B283" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C283" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D283">
         <v>87</v>
@@ -9223,10 +9229,10 @@
         <v>194</v>
       </c>
       <c r="B284" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C284" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D284">
         <v>33</v>
@@ -9243,10 +9249,10 @@
         <v>195</v>
       </c>
       <c r="B285" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C285" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D285">
         <v>28</v>
@@ -9263,10 +9269,10 @@
         <v>196</v>
       </c>
       <c r="B286" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C286" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D286">
         <v>83</v>
@@ -9283,10 +9289,10 @@
         <v>197</v>
       </c>
       <c r="B287" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C287" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D287">
         <v>20</v>
@@ -9303,10 +9309,10 @@
         <v>196</v>
       </c>
       <c r="B288" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C288" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D288">
         <v>86</v>
@@ -9323,10 +9329,10 @@
         <v>197</v>
       </c>
       <c r="B289" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C289" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D289">
         <v>81</v>
@@ -9343,10 +9349,10 @@
         <v>198</v>
       </c>
       <c r="B290" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C290" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D290">
         <v>85</v>
@@ -9363,10 +9369,10 @@
         <v>199</v>
       </c>
       <c r="B291" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C291" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D291">
         <v>12</v>
@@ -9383,10 +9389,10 @@
         <v>200</v>
       </c>
       <c r="B292" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C292" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D292">
         <v>12</v>
@@ -9403,10 +9409,10 @@
         <v>201</v>
       </c>
       <c r="B293" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C293" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D293">
         <v>23</v>
@@ -9423,10 +9429,10 @@
         <v>202</v>
       </c>
       <c r="B294" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C294" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D294">
         <v>94</v>
@@ -9443,10 +9449,10 @@
         <v>203</v>
       </c>
       <c r="B295" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C295" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D295">
         <v>41</v>
@@ -9463,10 +9469,10 @@
         <v>204</v>
       </c>
       <c r="B296" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C296" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D296">
         <v>18</v>
@@ -9483,10 +9489,10 @@
         <v>205</v>
       </c>
       <c r="B297" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C297" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D297">
         <v>59</v>
@@ -9503,10 +9509,10 @@
         <v>206</v>
       </c>
       <c r="B298" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C298" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D298">
         <v>40</v>
@@ -9523,10 +9529,10 @@
         <v>207</v>
       </c>
       <c r="B299" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C299" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D299">
         <v>27</v>
@@ -9543,10 +9549,10 @@
         <v>208</v>
       </c>
       <c r="B300" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C300" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D300">
         <v>44</v>
@@ -9563,10 +9569,10 @@
         <v>209</v>
       </c>
       <c r="B301" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C301" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D301">
         <v>87</v>
@@ -9583,10 +9589,10 @@
         <v>210</v>
       </c>
       <c r="B302" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C302" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D302">
         <v>44</v>
@@ -9603,10 +9609,10 @@
         <v>211</v>
       </c>
       <c r="B303" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C303" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D303">
         <v>99</v>
@@ -9623,10 +9629,10 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C304" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D304">
         <v>100</v>
@@ -9643,10 +9649,10 @@
         <v>212</v>
       </c>
       <c r="B305" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C305" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D305">
         <v>50</v>
@@ -9663,10 +9669,10 @@
         <v>213</v>
       </c>
       <c r="B306" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C306" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D306">
         <v>62</v>
@@ -9683,10 +9689,10 @@
         <v>214</v>
       </c>
       <c r="B307" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C307" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D307">
         <v>2</v>
@@ -9703,10 +9709,10 @@
         <v>215</v>
       </c>
       <c r="B308" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C308" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D308">
         <v>45</v>
@@ -9723,10 +9729,10 @@
         <v>216</v>
       </c>
       <c r="B309" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C309" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D309">
         <v>91</v>
@@ -9743,10 +9749,10 @@
         <v>178</v>
       </c>
       <c r="B310" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C310" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D310">
         <v>68</v>
@@ -9763,10 +9769,10 @@
         <v>179</v>
       </c>
       <c r="B311" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C311" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D311">
         <v>32</v>
@@ -9783,10 +9789,10 @@
         <v>217</v>
       </c>
       <c r="B312" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C312" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D312">
         <v>7</v>
@@ -9803,10 +9809,10 @@
         <v>218</v>
       </c>
       <c r="B313" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C313" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D313">
         <v>91</v>
@@ -9823,10 +9829,10 @@
         <v>219</v>
       </c>
       <c r="B314" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C314" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D314">
         <v>57</v>
@@ -9843,10 +9849,10 @@
         <v>220</v>
       </c>
       <c r="B315" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C315" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D315">
         <v>60</v>
@@ -9863,10 +9869,10 @@
         <v>221</v>
       </c>
       <c r="B316" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C316" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D316">
         <v>57</v>
@@ -9883,10 +9889,10 @@
         <v>222</v>
       </c>
       <c r="B317" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C317" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D317">
         <v>67</v>
@@ -9903,10 +9909,10 @@
         <v>223</v>
       </c>
       <c r="B318" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C318" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D318">
         <v>9</v>
@@ -9923,10 +9929,10 @@
         <v>224</v>
       </c>
       <c r="B319" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C319" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D319">
         <v>60</v>
@@ -9943,10 +9949,10 @@
         <v>225</v>
       </c>
       <c r="B320" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C320" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D320">
         <v>31</v>
@@ -9963,10 +9969,10 @@
         <v>226</v>
       </c>
       <c r="B321" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C321" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D321">
         <v>29</v>
@@ -9983,10 +9989,10 @@
         <v>227</v>
       </c>
       <c r="B322" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C322" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D322">
         <v>67</v>
@@ -10003,10 +10009,10 @@
         <v>228</v>
       </c>
       <c r="B323" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C323" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D323">
         <v>14</v>
@@ -10023,10 +10029,10 @@
         <v>229</v>
       </c>
       <c r="B324" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C324" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D324">
         <v>94</v>
@@ -10043,10 +10049,10 @@
         <v>230</v>
       </c>
       <c r="B325" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C325" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D325">
         <v>50</v>
@@ -10063,10 +10069,10 @@
         <v>231</v>
       </c>
       <c r="B326" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C326" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D326">
         <v>64</v>
@@ -10083,10 +10089,10 @@
         <v>232</v>
       </c>
       <c r="B327" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C327" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D327">
         <v>20</v>
@@ -10103,10 +10109,10 @@
         <v>233</v>
       </c>
       <c r="B328" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C328" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D328">
         <v>56</v>
@@ -10123,10 +10129,10 @@
         <v>234</v>
       </c>
       <c r="B329" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C329" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D329">
         <v>33</v>
@@ -10143,10 +10149,10 @@
         <v>235</v>
       </c>
       <c r="B330" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C330" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D330">
         <v>38</v>
@@ -10163,10 +10169,10 @@
         <v>236</v>
       </c>
       <c r="B331" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C331" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D331">
         <v>31</v>
@@ -10183,10 +10189,10 @@
         <v>237</v>
       </c>
       <c r="B332" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C332" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D332">
         <v>92</v>
@@ -10203,10 +10209,10 @@
         <v>238</v>
       </c>
       <c r="B333" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C333" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D333">
         <v>5</v>
@@ -10223,10 +10229,10 @@
         <v>239</v>
       </c>
       <c r="B334" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C334" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D334">
         <v>97</v>
@@ -10243,10 +10249,10 @@
         <v>52</v>
       </c>
       <c r="B335" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C335" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D335">
         <v>71</v>
@@ -10263,10 +10269,10 @@
         <v>53</v>
       </c>
       <c r="B336" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C336" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D336">
         <v>30</v>
@@ -10283,10 +10289,10 @@
         <v>240</v>
       </c>
       <c r="B337" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C337" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D337">
         <v>58</v>
@@ -10303,10 +10309,10 @@
         <v>241</v>
       </c>
       <c r="B338" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C338" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D338">
         <v>5</v>
@@ -10323,10 +10329,10 @@
         <v>242</v>
       </c>
       <c r="B339" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C339" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D339">
         <v>93</v>
@@ -10343,10 +10349,10 @@
         <v>243</v>
       </c>
       <c r="B340" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C340" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D340">
         <v>60</v>
@@ -10363,10 +10369,10 @@
         <v>244</v>
       </c>
       <c r="B341" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C341" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D341">
         <v>82</v>
@@ -10383,10 +10389,10 @@
         <v>245</v>
       </c>
       <c r="B342" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C342" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D342">
         <v>36</v>
@@ -10403,10 +10409,10 @@
         <v>246</v>
       </c>
       <c r="B343" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C343" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D343">
         <v>2</v>
@@ -10423,10 +10429,10 @@
         <v>247</v>
       </c>
       <c r="B344" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C344" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D344">
         <v>19</v>
@@ -10443,10 +10449,10 @@
         <v>248</v>
       </c>
       <c r="B345" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C345" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D345">
         <v>27</v>
@@ -10463,10 +10469,10 @@
         <v>249</v>
       </c>
       <c r="B346" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C346" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D346">
         <v>2</v>
@@ -10483,10 +10489,10 @@
         <v>250</v>
       </c>
       <c r="B347" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C347" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D347">
         <v>10</v>
@@ -10503,10 +10509,10 @@
         <v>251</v>
       </c>
       <c r="B348" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C348" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D348">
         <v>32</v>
@@ -10523,10 +10529,10 @@
         <v>252</v>
       </c>
       <c r="B349" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C349" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D349">
         <v>21</v>
@@ -10543,10 +10549,10 @@
         <v>253</v>
       </c>
       <c r="B350" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C350" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D350">
         <v>55</v>
@@ -10563,10 +10569,10 @@
         <v>254</v>
       </c>
       <c r="B351" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C351" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D351">
         <v>65</v>
@@ -10583,10 +10589,10 @@
         <v>255</v>
       </c>
       <c r="B352" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C352" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D352">
         <v>56</v>
@@ -10603,10 +10609,10 @@
         <v>256</v>
       </c>
       <c r="B353" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C353" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D353">
         <v>37</v>
@@ -10623,10 +10629,10 @@
         <v>257</v>
       </c>
       <c r="B354" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C354" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D354">
         <v>21</v>
@@ -10643,10 +10649,10 @@
         <v>258</v>
       </c>
       <c r="B355" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C355" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D355">
         <v>49</v>
@@ -10663,10 +10669,10 @@
         <v>198</v>
       </c>
       <c r="B356" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C356" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D356">
         <v>16</v>
@@ -10683,10 +10689,10 @@
         <v>259</v>
       </c>
       <c r="B357" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C357" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D357">
         <v>89</v>
@@ -10703,10 +10709,10 @@
         <v>64</v>
       </c>
       <c r="B358" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C358" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D358">
         <v>89</v>
@@ -10723,10 +10729,10 @@
         <v>44</v>
       </c>
       <c r="B359" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C359" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D359">
         <v>93</v>
@@ -10743,10 +10749,10 @@
         <v>260</v>
       </c>
       <c r="B360" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C360" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D360">
         <v>90</v>
@@ -10763,10 +10769,10 @@
         <v>261</v>
       </c>
       <c r="B361" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C361" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D361">
         <v>46</v>
@@ -10783,10 +10789,10 @@
         <v>262</v>
       </c>
       <c r="B362" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C362" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D362">
         <v>30</v>
@@ -10803,10 +10809,10 @@
         <v>263</v>
       </c>
       <c r="B363" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C363" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D363">
         <v>13</v>
@@ -10823,10 +10829,10 @@
         <v>264</v>
       </c>
       <c r="B364" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C364" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D364">
         <v>93</v>
@@ -10843,10 +10849,10 @@
         <v>265</v>
       </c>
       <c r="B365" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C365" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D365">
         <v>21</v>
@@ -10863,10 +10869,10 @@
         <v>266</v>
       </c>
       <c r="B366" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C366" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D366">
         <v>5</v>
@@ -10883,10 +10889,10 @@
         <v>267</v>
       </c>
       <c r="B367" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C367" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D367">
         <v>83</v>
@@ -10903,10 +10909,10 @@
         <v>268</v>
       </c>
       <c r="B368" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C368" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D368">
         <v>64</v>
@@ -10923,10 +10929,10 @@
         <v>269</v>
       </c>
       <c r="B369" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C369" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D369">
         <v>67</v>
@@ -10943,10 +10949,10 @@
         <v>270</v>
       </c>
       <c r="B370" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C370" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D370">
         <v>58</v>
@@ -10963,10 +10969,10 @@
         <v>271</v>
       </c>
       <c r="B371" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C371" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D371">
         <v>83</v>
@@ -10983,10 +10989,10 @@
         <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C372" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D372">
         <v>2</v>
@@ -11003,10 +11009,10 @@
         <v>272</v>
       </c>
       <c r="B373" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C373" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D373">
         <v>33</v>
@@ -11023,10 +11029,10 @@
         <v>13</v>
       </c>
       <c r="B374" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C374" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D374">
         <v>86</v>
@@ -11043,10 +11049,10 @@
         <v>14</v>
       </c>
       <c r="B375" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C375" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D375">
         <v>76</v>
@@ -11063,10 +11069,10 @@
         <v>71</v>
       </c>
       <c r="B376" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C376" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D376">
         <v>47</v>
@@ -11083,10 +11089,10 @@
         <v>70</v>
       </c>
       <c r="B377" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C377" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D377">
         <v>45</v>
@@ -11103,10 +11109,10 @@
         <v>152</v>
       </c>
       <c r="B378" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C378" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D378">
         <v>3</v>
@@ -11123,10 +11129,10 @@
         <v>153</v>
       </c>
       <c r="B379" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C379" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D379">
         <v>44</v>
@@ -11143,10 +11149,10 @@
         <v>273</v>
       </c>
       <c r="B380" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C380" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D380">
         <v>93</v>
@@ -11163,10 +11169,10 @@
         <v>274</v>
       </c>
       <c r="B381" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C381" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D381">
         <v>60</v>
@@ -11183,10 +11189,10 @@
         <v>64</v>
       </c>
       <c r="B382" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C382" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D382">
         <v>48</v>
@@ -11203,10 +11209,10 @@
         <v>44</v>
       </c>
       <c r="B383" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C383" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D383">
         <v>46</v>
@@ -11223,10 +11229,10 @@
         <v>275</v>
       </c>
       <c r="B384" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C384" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D384">
         <v>52</v>
@@ -11243,10 +11249,10 @@
         <v>267</v>
       </c>
       <c r="B385" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C385" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D385">
         <v>22</v>
@@ -11263,10 +11269,10 @@
         <v>268</v>
       </c>
       <c r="B386" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C386" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D386">
         <v>7</v>
@@ -11283,10 +11289,10 @@
         <v>154</v>
       </c>
       <c r="B387" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C387" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D387">
         <v>60</v>
@@ -11303,10 +11309,10 @@
         <v>155</v>
       </c>
       <c r="B388" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C388" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D388">
         <v>46</v>
@@ -11323,10 +11329,10 @@
         <v>276</v>
       </c>
       <c r="B389" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C389" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D389">
         <v>57</v>
@@ -11343,10 +11349,10 @@
         <v>277</v>
       </c>
       <c r="B390" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C390" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D390">
         <v>3</v>
@@ -11363,10 +11369,10 @@
         <v>6</v>
       </c>
       <c r="B391" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C391" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D391">
         <v>58</v>
@@ -11383,10 +11389,10 @@
         <v>9</v>
       </c>
       <c r="B392" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C392" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D392">
         <v>72</v>
@@ -11403,10 +11409,10 @@
         <v>278</v>
       </c>
       <c r="B393" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C393" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D393">
         <v>75</v>
@@ -11423,10 +11429,10 @@
         <v>279</v>
       </c>
       <c r="B394" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C394" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D394">
         <v>49</v>
@@ -11443,10 +11449,10 @@
         <v>13</v>
       </c>
       <c r="B395" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C395" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D395">
         <v>63</v>
@@ -11463,10 +11469,10 @@
         <v>280</v>
       </c>
       <c r="B396" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C396" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D396">
         <v>68</v>
@@ -11483,10 +11489,10 @@
         <v>152</v>
       </c>
       <c r="B397" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C397" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D397">
         <v>65</v>
@@ -11503,10 +11509,10 @@
         <v>153</v>
       </c>
       <c r="B398" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C398" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D398">
         <v>85</v>
@@ -11523,10 +11529,10 @@
         <v>281</v>
       </c>
       <c r="B399" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C399" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D399">
         <v>85</v>
@@ -11543,10 +11549,10 @@
         <v>282</v>
       </c>
       <c r="B400" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C400" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D400">
         <v>63</v>
@@ -11563,10 +11569,10 @@
         <v>283</v>
       </c>
       <c r="B401" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C401" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D401">
         <v>38</v>
@@ -11583,10 +11589,10 @@
         <v>284</v>
       </c>
       <c r="B402" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C402" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D402">
         <v>16</v>
@@ -11603,10 +11609,10 @@
         <v>37</v>
       </c>
       <c r="B403" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C403" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D403">
         <v>80</v>
@@ -11623,10 +11629,10 @@
         <v>38</v>
       </c>
       <c r="B404" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C404" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D404">
         <v>89</v>
@@ -11643,10 +11649,10 @@
         <v>56</v>
       </c>
       <c r="B405" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C405" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D405">
         <v>8</v>
@@ -11663,10 +11669,10 @@
         <v>57</v>
       </c>
       <c r="B406" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C406" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D406">
         <v>48</v>
@@ -11683,10 +11689,10 @@
         <v>64</v>
       </c>
       <c r="B407" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C407" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D407">
         <v>96</v>
@@ -11703,10 +11709,10 @@
         <v>44</v>
       </c>
       <c r="B408" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C408" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D408">
         <v>43</v>
@@ -11723,10 +11729,10 @@
         <v>112</v>
       </c>
       <c r="B409" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C409" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D409">
         <v>44</v>
@@ -11743,10 +11749,10 @@
         <v>104</v>
       </c>
       <c r="B410" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C410" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D410">
         <v>98</v>
@@ -11763,10 +11769,10 @@
         <v>105</v>
       </c>
       <c r="B411" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C411" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D411">
         <v>58</v>
@@ -11783,10 +11789,10 @@
         <v>106</v>
       </c>
       <c r="B412" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C412" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D412">
         <v>4</v>
@@ -11803,10 +11809,10 @@
         <v>107</v>
       </c>
       <c r="B413" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C413" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D413">
         <v>10</v>
@@ -11823,10 +11829,10 @@
         <v>6</v>
       </c>
       <c r="B414" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C414" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D414">
         <v>46</v>
@@ -11843,10 +11849,10 @@
         <v>6</v>
       </c>
       <c r="B415" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C415" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D415">
         <v>45</v>
@@ -11863,10 +11869,10 @@
         <v>51</v>
       </c>
       <c r="B416" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C416" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D416">
         <v>46</v>
@@ -11883,10 +11889,10 @@
         <v>9</v>
       </c>
       <c r="B417" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C417" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D417">
         <v>41</v>
@@ -11903,10 +11909,10 @@
         <v>152</v>
       </c>
       <c r="B418" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C418" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D418">
         <v>18</v>
@@ -11923,10 +11929,10 @@
         <v>153</v>
       </c>
       <c r="B419" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C419" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D419">
         <v>38</v>
@@ -11943,10 +11949,10 @@
         <v>285</v>
       </c>
       <c r="B420" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C420" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -11963,10 +11969,10 @@
         <v>286</v>
       </c>
       <c r="B421" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C421" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D421">
         <v>35</v>
@@ -11983,10 +11989,10 @@
         <v>287</v>
       </c>
       <c r="B422" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C422" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D422">
         <v>77</v>
@@ -12003,10 +12009,10 @@
         <v>288</v>
       </c>
       <c r="B423" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C423" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D423">
         <v>93</v>
@@ -12023,10 +12029,10 @@
         <v>6</v>
       </c>
       <c r="B424" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C424" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D424">
         <v>61</v>
@@ -12043,10 +12049,10 @@
         <v>289</v>
       </c>
       <c r="B425" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C425" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D425">
         <v>63</v>
@@ -12063,10 +12069,10 @@
         <v>9</v>
       </c>
       <c r="B426" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C426" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D426">
         <v>8</v>
@@ -12083,10 +12089,10 @@
         <v>290</v>
       </c>
       <c r="B427" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C427" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D427">
         <v>46</v>
@@ -12103,10 +12109,10 @@
         <v>13</v>
       </c>
       <c r="B428" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C428" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D428">
         <v>44</v>
@@ -12123,10 +12129,10 @@
         <v>14</v>
       </c>
       <c r="B429" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C429" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D429">
         <v>21</v>
@@ -12143,10 +12149,10 @@
         <v>71</v>
       </c>
       <c r="B430" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C430" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D430">
         <v>13</v>
@@ -12163,10 +12169,10 @@
         <v>70</v>
       </c>
       <c r="B431" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C431" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D431">
         <v>41</v>
@@ -12183,10 +12189,10 @@
         <v>291</v>
       </c>
       <c r="B432" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C432" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D432">
         <v>86</v>
@@ -12203,10 +12209,10 @@
         <v>292</v>
       </c>
       <c r="B433" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C433" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D433">
         <v>22</v>
@@ -12223,10 +12229,10 @@
         <v>293</v>
       </c>
       <c r="B434" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C434" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D434">
         <v>98</v>
@@ -12243,10 +12249,10 @@
         <v>294</v>
       </c>
       <c r="B435" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C435" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D435">
         <v>74</v>
@@ -12263,10 +12269,10 @@
         <v>37</v>
       </c>
       <c r="B436" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C436" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D436">
         <v>57</v>
@@ -12283,10 +12289,10 @@
         <v>38</v>
       </c>
       <c r="B437" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C437" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D437">
         <v>40</v>
@@ -12303,10 +12309,10 @@
         <v>37</v>
       </c>
       <c r="B438" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C438" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D438">
         <v>25</v>
@@ -12323,10 +12329,10 @@
         <v>38</v>
       </c>
       <c r="B439" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C439" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D439">
         <v>83</v>
@@ -12343,10 +12349,10 @@
         <v>295</v>
       </c>
       <c r="B440" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C440" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D440">
         <v>14</v>
@@ -12363,10 +12369,10 @@
         <v>295</v>
       </c>
       <c r="B441" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C441" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D441">
         <v>30</v>
@@ -12383,10 +12389,10 @@
         <v>296</v>
       </c>
       <c r="B442" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C442" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D442">
         <v>89</v>
@@ -12403,10 +12409,10 @@
         <v>296</v>
       </c>
       <c r="B443" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C443" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -12423,10 +12429,10 @@
         <v>297</v>
       </c>
       <c r="B444" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C444" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D444">
         <v>53</v>
@@ -12443,10 +12449,10 @@
         <v>64</v>
       </c>
       <c r="B445" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C445" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D445">
         <v>40</v>
@@ -12463,10 +12469,10 @@
         <v>44</v>
       </c>
       <c r="B446" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C446" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D446">
         <v>41</v>
@@ -12483,10 +12489,10 @@
         <v>6</v>
       </c>
       <c r="B447" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C447" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D447">
         <v>1</v>
@@ -12503,10 +12509,10 @@
         <v>13</v>
       </c>
       <c r="B448" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C448" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D448">
         <v>63</v>
@@ -12523,10 +12529,10 @@
         <v>14</v>
       </c>
       <c r="B449" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C449" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D449">
         <v>97</v>
@@ -12543,10 +12549,10 @@
         <v>52</v>
       </c>
       <c r="B450" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C450" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D450">
         <v>32</v>
@@ -12563,10 +12569,10 @@
         <v>53</v>
       </c>
       <c r="B451" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C451" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D451">
         <v>54</v>
@@ -12583,10 +12589,10 @@
         <v>37</v>
       </c>
       <c r="B452" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C452" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D452">
         <v>71</v>
@@ -12603,10 +12609,10 @@
         <v>38</v>
       </c>
       <c r="B453" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C453" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D453">
         <v>3</v>
@@ -12623,10 +12629,10 @@
         <v>84</v>
       </c>
       <c r="B454" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C454" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D454">
         <v>90</v>
@@ -12643,10 +12649,10 @@
         <v>83</v>
       </c>
       <c r="B455" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C455" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D455">
         <v>56</v>
@@ -12663,10 +12669,10 @@
         <v>298</v>
       </c>
       <c r="B456" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C456" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D456">
         <v>14</v>
@@ -12683,10 +12689,10 @@
         <v>299</v>
       </c>
       <c r="B457" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C457" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D457">
         <v>59</v>
@@ -12703,10 +12709,10 @@
         <v>300</v>
       </c>
       <c r="B458" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C458" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D458">
         <v>91</v>
@@ -12723,10 +12729,10 @@
         <v>301</v>
       </c>
       <c r="B459" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C459" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D459">
         <v>98</v>
@@ -12743,10 +12749,10 @@
         <v>302</v>
       </c>
       <c r="B460" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C460" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D460">
         <v>12</v>
@@ -12763,10 +12769,10 @@
         <v>112</v>
       </c>
       <c r="B461" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C461" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D461">
         <v>13</v>
@@ -12783,10 +12789,10 @@
         <v>104</v>
       </c>
       <c r="B462" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C462" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D462">
         <v>94</v>
@@ -12803,10 +12809,10 @@
         <v>105</v>
       </c>
       <c r="B463" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C463" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D463">
         <v>15</v>
@@ -12823,10 +12829,10 @@
         <v>106</v>
       </c>
       <c r="B464" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C464" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D464">
         <v>74</v>
@@ -12843,10 +12849,10 @@
         <v>107</v>
       </c>
       <c r="B465" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C465" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D465">
         <v>17</v>
@@ -12863,10 +12869,10 @@
         <v>6</v>
       </c>
       <c r="B466" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C466" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D466">
         <v>36</v>
@@ -12883,10 +12889,10 @@
         <v>164</v>
       </c>
       <c r="B467" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C467" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D467">
         <v>98</v>
@@ -12903,10 +12909,10 @@
         <v>303</v>
       </c>
       <c r="B468" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C468" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D468">
         <v>90</v>
@@ -12923,10 +12929,10 @@
         <v>74</v>
       </c>
       <c r="B469" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C469" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D469">
         <v>97</v>
@@ -12943,10 +12949,10 @@
         <v>304</v>
       </c>
       <c r="B470" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C470" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D470">
         <v>80</v>
@@ -12963,10 +12969,10 @@
         <v>152</v>
       </c>
       <c r="B471" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C471" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D471">
         <v>16</v>
@@ -12983,10 +12989,10 @@
         <v>153</v>
       </c>
       <c r="B472" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C472" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D472">
         <v>5</v>
@@ -13003,10 +13009,10 @@
         <v>305</v>
       </c>
       <c r="B473" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C473" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D473">
         <v>65</v>
@@ -13023,10 +13029,10 @@
         <v>306</v>
       </c>
       <c r="B474" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C474" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D474">
         <v>38</v>
@@ -13043,10 +13049,10 @@
         <v>307</v>
       </c>
       <c r="B475" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C475" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D475">
         <v>54</v>
@@ -13063,10 +13069,10 @@
         <v>308</v>
       </c>
       <c r="B476" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C476" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D476">
         <v>73</v>
@@ -13083,10 +13089,10 @@
         <v>154</v>
       </c>
       <c r="B477" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C477" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D477">
         <v>59</v>
@@ -13103,10 +13109,10 @@
         <v>155</v>
       </c>
       <c r="B478" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C478" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D478">
         <v>67</v>
@@ -13123,10 +13129,10 @@
         <v>309</v>
       </c>
       <c r="B479" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C479" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D479">
         <v>5</v>
@@ -13143,10 +13149,10 @@
         <v>310</v>
       </c>
       <c r="B480" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C480" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D480">
         <v>62</v>
@@ -13163,10 +13169,10 @@
         <v>311</v>
       </c>
       <c r="B481" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C481" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D481">
         <v>70</v>
@@ -13183,10 +13189,10 @@
         <v>312</v>
       </c>
       <c r="B482" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C482" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D482">
         <v>26</v>
@@ -13203,10 +13209,10 @@
         <v>64</v>
       </c>
       <c r="B483" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C483" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D483">
         <v>66</v>
@@ -13223,10 +13229,10 @@
         <v>44</v>
       </c>
       <c r="B484" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C484" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D484">
         <v>43</v>
@@ -13243,10 +13249,10 @@
         <v>313</v>
       </c>
       <c r="B485" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C485" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D485">
         <v>91</v>
@@ -13263,10 +13269,10 @@
         <v>314</v>
       </c>
       <c r="B486" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C486" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D486">
         <v>18</v>
@@ -13283,10 +13289,10 @@
         <v>315</v>
       </c>
       <c r="B487" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C487" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D487">
         <v>23</v>
@@ -13303,10 +13309,10 @@
         <v>316</v>
       </c>
       <c r="B488" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C488" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D488">
         <v>53</v>
@@ -13323,10 +13329,10 @@
         <v>317</v>
       </c>
       <c r="B489" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C489" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D489">
         <v>64</v>
@@ -13343,10 +13349,10 @@
         <v>318</v>
       </c>
       <c r="B490" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C490" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D490">
         <v>30</v>
@@ -13363,10 +13369,10 @@
         <v>319</v>
       </c>
       <c r="B491" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C491" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D491">
         <v>54</v>
@@ -13383,10 +13389,10 @@
         <v>320</v>
       </c>
       <c r="B492" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C492" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D492">
         <v>33</v>
@@ -13403,10 +13409,10 @@
         <v>321</v>
       </c>
       <c r="B493" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C493" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D493">
         <v>99</v>
@@ -13423,10 +13429,10 @@
         <v>322</v>
       </c>
       <c r="B494" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C494" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D494">
         <v>54</v>
@@ -13443,10 +13449,10 @@
         <v>323</v>
       </c>
       <c r="B495" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C495" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D495">
         <v>83</v>
@@ -13463,10 +13469,10 @@
         <v>324</v>
       </c>
       <c r="B496" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C496" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D496">
         <v>62</v>
@@ -13483,10 +13489,10 @@
         <v>324</v>
       </c>
       <c r="B497" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C497" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D497">
         <v>2</v>
@@ -13503,10 +13509,10 @@
         <v>13</v>
       </c>
       <c r="B498" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C498" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D498">
         <v>93</v>
@@ -13523,10 +13529,10 @@
         <v>14</v>
       </c>
       <c r="B499" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C499" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D499">
         <v>8</v>
@@ -13543,10 +13549,10 @@
         <v>325</v>
       </c>
       <c r="B500" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C500" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D500">
         <v>69</v>
@@ -13563,10 +13569,10 @@
         <v>326</v>
       </c>
       <c r="B501" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C501" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D501">
         <v>59</v>
@@ -13583,10 +13589,10 @@
         <v>327</v>
       </c>
       <c r="B502" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C502" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D502">
         <v>8</v>
@@ -13603,10 +13609,10 @@
         <v>328</v>
       </c>
       <c r="B503" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C503" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D503">
         <v>89</v>
@@ -13623,10 +13629,10 @@
         <v>329</v>
       </c>
       <c r="B504" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C504" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D504">
         <v>61</v>
@@ -13643,10 +13649,10 @@
         <v>330</v>
       </c>
       <c r="B505" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C505" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D505">
         <v>79</v>
@@ -13663,10 +13669,10 @@
         <v>331</v>
       </c>
       <c r="B506" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C506" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D506">
         <v>88</v>
@@ -13683,10 +13689,10 @@
         <v>332</v>
       </c>
       <c r="B507" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C507" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D507">
         <v>14</v>
@@ -13703,10 +13709,10 @@
         <v>333</v>
       </c>
       <c r="B508" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C508" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D508">
         <v>30</v>
@@ -13723,10 +13729,10 @@
         <v>334</v>
       </c>
       <c r="B509" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C509" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D509">
         <v>84</v>
@@ -13743,10 +13749,10 @@
         <v>108</v>
       </c>
       <c r="B510" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C510" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D510">
         <v>82</v>
@@ -13763,10 +13769,10 @@
         <v>335</v>
       </c>
       <c r="B511" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C511" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D511">
         <v>34</v>
@@ -13783,10 +13789,10 @@
         <v>336</v>
       </c>
       <c r="B512" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C512" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D512">
         <v>5</v>
@@ -13803,10 +13809,10 @@
         <v>337</v>
       </c>
       <c r="B513" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C513" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D513">
         <v>18</v>
@@ -13823,10 +13829,10 @@
         <v>64</v>
       </c>
       <c r="B514" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C514" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D514">
         <v>20</v>
@@ -13843,10 +13849,10 @@
         <v>44</v>
       </c>
       <c r="B515" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C515" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D515">
         <v>99</v>
@@ -13863,10 +13869,10 @@
         <v>6</v>
       </c>
       <c r="B516" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C516" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D516">
         <v>84</v>
@@ -13883,10 +13889,10 @@
         <v>338</v>
       </c>
       <c r="B517" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C517" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D517">
         <v>70</v>
@@ -13903,10 +13909,10 @@
         <v>13</v>
       </c>
       <c r="B518" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C518" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D518">
         <v>49</v>
@@ -13923,10 +13929,10 @@
         <v>14</v>
       </c>
       <c r="B519" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C519" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D519">
         <v>66</v>
@@ -13943,10 +13949,10 @@
         <v>339</v>
       </c>
       <c r="B520" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C520" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D520">
         <v>49</v>
@@ -13963,10 +13969,10 @@
         <v>340</v>
       </c>
       <c r="B521" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C521" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D521">
         <v>51</v>
@@ -13983,10 +13989,10 @@
         <v>6</v>
       </c>
       <c r="B522" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C522" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D522">
         <v>87</v>
@@ -14003,10 +14009,10 @@
         <v>9</v>
       </c>
       <c r="B523" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C523" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D523">
         <v>73</v>
@@ -14023,10 +14029,10 @@
         <v>51</v>
       </c>
       <c r="B524" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C524" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D524">
         <v>71</v>
@@ -14043,10 +14049,10 @@
         <v>6</v>
       </c>
       <c r="B525" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C525" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D525">
         <v>69</v>
@@ -14063,10 +14069,10 @@
         <v>51</v>
       </c>
       <c r="B526" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C526" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D526">
         <v>34</v>
@@ -14083,10 +14089,10 @@
         <v>6</v>
       </c>
       <c r="B527" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C527" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D527">
         <v>70</v>
@@ -14103,10 +14109,10 @@
         <v>341</v>
       </c>
       <c r="B528" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C528" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D528">
         <v>6</v>
@@ -14123,10 +14129,10 @@
         <v>342</v>
       </c>
       <c r="B529" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C529" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D529">
         <v>79</v>
@@ -14143,10 +14149,10 @@
         <v>9</v>
       </c>
       <c r="B530" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C530" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D530">
         <v>75</v>
@@ -14163,10 +14169,10 @@
         <v>138</v>
       </c>
       <c r="B531" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C531" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D531">
         <v>70</v>
@@ -14183,10 +14189,10 @@
         <v>139</v>
       </c>
       <c r="B532" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C532" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D532">
         <v>9</v>
@@ -14203,10 +14209,10 @@
         <v>154</v>
       </c>
       <c r="B533" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C533" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D533">
         <v>58</v>
@@ -14223,10 +14229,10 @@
         <v>155</v>
       </c>
       <c r="B534" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C534" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D534">
         <v>46</v>
@@ -14243,10 +14249,10 @@
         <v>66</v>
       </c>
       <c r="B535" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C535" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D535">
         <v>8</v>
@@ -14263,10 +14269,10 @@
         <v>65</v>
       </c>
       <c r="B536" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C536" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D536">
         <v>21</v>
@@ -14283,10 +14289,10 @@
         <v>64</v>
       </c>
       <c r="B537" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C537" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D537">
         <v>32</v>
@@ -14303,10 +14309,10 @@
         <v>44</v>
       </c>
       <c r="B538" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C538" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D538">
         <v>13</v>
@@ -14323,10 +14329,10 @@
         <v>343</v>
       </c>
       <c r="B539" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C539" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D539">
         <v>69</v>
@@ -14343,10 +14349,10 @@
         <v>300</v>
       </c>
       <c r="B540" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C540" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D540">
         <v>39</v>
@@ -14363,10 +14369,10 @@
         <v>344</v>
       </c>
       <c r="B541" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C541" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D541">
         <v>74</v>
@@ -14383,10 +14389,10 @@
         <v>345</v>
       </c>
       <c r="B542" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C542" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D542">
         <v>12</v>
@@ -14403,10 +14409,10 @@
         <v>346</v>
       </c>
       <c r="B543" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C543" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D543">
         <v>44</v>
@@ -14423,10 +14429,10 @@
         <v>15</v>
       </c>
       <c r="B544" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C544" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D544">
         <v>23</v>
@@ -14443,10 +14449,10 @@
         <v>16</v>
       </c>
       <c r="B545" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C545" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D545">
         <v>72</v>
@@ -14463,10 +14469,10 @@
         <v>52</v>
       </c>
       <c r="B546" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C546" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D546">
         <v>16</v>
@@ -14483,10 +14489,10 @@
         <v>53</v>
       </c>
       <c r="B547" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C547" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D547">
         <v>19</v>
@@ -14503,10 +14509,10 @@
         <v>347</v>
       </c>
       <c r="B548" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C548" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D548">
         <v>9</v>
@@ -14523,10 +14529,10 @@
         <v>70</v>
       </c>
       <c r="B549" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C549" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D549">
         <v>36</v>
@@ -14543,10 +14549,10 @@
         <v>37</v>
       </c>
       <c r="B550" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C550" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D550">
         <v>59</v>
@@ -14563,10 +14569,10 @@
         <v>38</v>
       </c>
       <c r="B551" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C551" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D551">
         <v>49</v>
@@ -14583,10 +14589,10 @@
         <v>59</v>
       </c>
       <c r="B552" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C552" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D552">
         <v>17</v>
@@ -14603,10 +14609,10 @@
         <v>58</v>
       </c>
       <c r="B553" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C553" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D553">
         <v>44</v>
@@ -14623,10 +14629,10 @@
         <v>84</v>
       </c>
       <c r="B554" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C554" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D554">
         <v>83</v>
@@ -14643,10 +14649,10 @@
         <v>83</v>
       </c>
       <c r="B555" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C555" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D555">
         <v>50</v>
@@ -14663,10 +14669,10 @@
         <v>348</v>
       </c>
       <c r="B556" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C556" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D556">
         <v>32</v>
@@ -14683,10 +14689,10 @@
         <v>349</v>
       </c>
       <c r="B557" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C557" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D557">
         <v>44</v>
@@ -14703,10 +14709,10 @@
         <v>350</v>
       </c>
       <c r="B558" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C558" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D558">
         <v>12</v>
@@ -14723,10 +14729,10 @@
         <v>6</v>
       </c>
       <c r="B559" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C559" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D559">
         <v>12</v>
@@ -14743,10 +14749,10 @@
         <v>64</v>
       </c>
       <c r="B560" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C560" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D560">
         <v>75</v>
@@ -14763,10 +14769,10 @@
         <v>44</v>
       </c>
       <c r="B561" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C561" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D561">
         <v>55</v>
@@ -14783,10 +14789,10 @@
         <v>351</v>
       </c>
       <c r="B562" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C562" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D562">
         <v>75</v>
@@ -14803,10 +14809,10 @@
         <v>112</v>
       </c>
       <c r="B563" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C563" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D563">
         <v>89</v>
@@ -14823,10 +14829,10 @@
         <v>104</v>
       </c>
       <c r="B564" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C564" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D564">
         <v>60</v>
@@ -14843,10 +14849,10 @@
         <v>105</v>
       </c>
       <c r="B565" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C565" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D565">
         <v>53</v>
@@ -14863,10 +14869,10 @@
         <v>106</v>
       </c>
       <c r="B566" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C566" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D566">
         <v>86</v>
@@ -14883,10 +14889,10 @@
         <v>107</v>
       </c>
       <c r="B567" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C567" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D567">
         <v>20</v>
@@ -14903,10 +14909,10 @@
         <v>144</v>
       </c>
       <c r="B568" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C568" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D568">
         <v>29</v>
@@ -14923,10 +14929,10 @@
         <v>145</v>
       </c>
       <c r="B569" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C569" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D569">
         <v>38</v>
@@ -14943,10 +14949,10 @@
         <v>352</v>
       </c>
       <c r="B570" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C570" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D570">
         <v>21</v>
@@ -14963,10 +14969,10 @@
         <v>353</v>
       </c>
       <c r="B571" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C571" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D571">
         <v>8</v>
@@ -14983,10 +14989,10 @@
         <v>9</v>
       </c>
       <c r="B572" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C572" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D572">
         <v>57</v>
@@ -15003,10 +15009,10 @@
         <v>354</v>
       </c>
       <c r="B573" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C573" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D573">
         <v>44</v>
@@ -15023,10 +15029,10 @@
         <v>355</v>
       </c>
       <c r="B574" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C574" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D574">
         <v>59</v>
@@ -15043,10 +15049,10 @@
         <v>152</v>
       </c>
       <c r="B575" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C575" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D575">
         <v>85</v>
@@ -15063,10 +15069,10 @@
         <v>153</v>
       </c>
       <c r="B576" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C576" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D576">
         <v>22</v>
@@ -15083,10 +15089,10 @@
         <v>356</v>
       </c>
       <c r="B577" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C577" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D577">
         <v>23</v>
@@ -15103,10 +15109,10 @@
         <v>357</v>
       </c>
       <c r="B578" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C578" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D578">
         <v>40</v>
@@ -15123,10 +15129,10 @@
         <v>358</v>
       </c>
       <c r="B579" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C579" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D579">
         <v>34</v>
@@ -15143,10 +15149,10 @@
         <v>359</v>
       </c>
       <c r="B580" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C580" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D580">
         <v>47</v>
@@ -15163,10 +15169,10 @@
         <v>37</v>
       </c>
       <c r="B581" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C581" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D581">
         <v>52</v>
@@ -15183,10 +15189,10 @@
         <v>38</v>
       </c>
       <c r="B582" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C582" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D582">
         <v>72</v>
@@ -15203,10 +15209,10 @@
         <v>360</v>
       </c>
       <c r="B583" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C583" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D583">
         <v>28</v>
@@ -15223,10 +15229,10 @@
         <v>64</v>
       </c>
       <c r="B584" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C584" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D584">
         <v>47</v>
@@ -15243,10 +15249,10 @@
         <v>44</v>
       </c>
       <c r="B585" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C585" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D585">
         <v>76</v>
@@ -15263,10 +15269,10 @@
         <v>157</v>
       </c>
       <c r="B586" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C586" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D586">
         <v>70</v>
@@ -15283,10 +15289,10 @@
         <v>158</v>
       </c>
       <c r="B587" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C587" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D587">
         <v>8</v>
@@ -15303,10 +15309,10 @@
         <v>104</v>
       </c>
       <c r="B588" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C588" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D588">
         <v>62</v>
@@ -15323,10 +15329,10 @@
         <v>105</v>
       </c>
       <c r="B589" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C589" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D589">
         <v>19</v>
@@ -15343,10 +15349,10 @@
         <v>106</v>
       </c>
       <c r="B590" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C590" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D590">
         <v>15</v>
@@ -15363,10 +15369,10 @@
         <v>107</v>
       </c>
       <c r="B591" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C591" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D591">
         <v>48</v>
@@ -15383,10 +15389,10 @@
         <v>108</v>
       </c>
       <c r="B592" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C592" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D592">
         <v>30</v>
@@ -15403,10 +15409,10 @@
         <v>361</v>
       </c>
       <c r="B593" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C593" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D593">
         <v>16</v>
@@ -15423,10 +15429,10 @@
         <v>362</v>
       </c>
       <c r="B594" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C594" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D594">
         <v>27</v>
@@ -15443,10 +15449,10 @@
         <v>154</v>
       </c>
       <c r="B595" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C595" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D595">
         <v>87</v>
@@ -15463,10 +15469,10 @@
         <v>155</v>
       </c>
       <c r="B596" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C596" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D596">
         <v>29</v>
@@ -15483,10 +15489,10 @@
         <v>66</v>
       </c>
       <c r="B597" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C597" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D597">
         <v>43</v>
@@ -15503,10 +15509,10 @@
         <v>65</v>
       </c>
       <c r="B598" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C598" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D598">
         <v>95</v>
@@ -15523,10 +15529,10 @@
         <v>363</v>
       </c>
       <c r="B599" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C599" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D599">
         <v>50</v>
@@ -15543,10 +15549,10 @@
         <v>364</v>
       </c>
       <c r="B600" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C600" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D600">
         <v>97</v>
@@ -15563,10 +15569,10 @@
         <v>365</v>
       </c>
       <c r="B601" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C601" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D601">
         <v>19</v>
@@ -15583,10 +15589,10 @@
         <v>366</v>
       </c>
       <c r="B602" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C602" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D602">
         <v>10</v>
@@ -15603,10 +15609,10 @@
         <v>367</v>
       </c>
       <c r="B603" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C603" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D603">
         <v>60</v>
@@ -15623,10 +15629,10 @@
         <v>368</v>
       </c>
       <c r="B604" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C604" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D604">
         <v>53</v>
@@ -15643,10 +15649,10 @@
         <v>369</v>
       </c>
       <c r="B605" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C605" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D605">
         <v>12</v>
@@ -15663,10 +15669,10 @@
         <v>370</v>
       </c>
       <c r="B606" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C606" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D606">
         <v>68</v>
@@ -15683,10 +15689,10 @@
         <v>371</v>
       </c>
       <c r="B607" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C607" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D607">
         <v>24</v>
@@ -15703,10 +15709,10 @@
         <v>372</v>
       </c>
       <c r="B608" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C608" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D608">
         <v>1</v>
@@ -15723,10 +15729,10 @@
         <v>373</v>
       </c>
       <c r="B609" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C609" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D609">
         <v>35</v>
@@ -15743,10 +15749,10 @@
         <v>154</v>
       </c>
       <c r="B610" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C610" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D610">
         <v>86</v>
@@ -15763,10 +15769,10 @@
         <v>155</v>
       </c>
       <c r="B611" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C611" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D611">
         <v>84</v>
@@ -15783,10 +15789,10 @@
         <v>6</v>
       </c>
       <c r="B612" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C612" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D612">
         <v>21</v>
@@ -15803,10 +15809,10 @@
         <v>374</v>
       </c>
       <c r="B613" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C613" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D613">
         <v>63</v>
@@ -15823,10 +15829,10 @@
         <v>375</v>
       </c>
       <c r="B614" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C614" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D614">
         <v>88</v>
@@ -15843,10 +15849,10 @@
         <v>364</v>
       </c>
       <c r="B615" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C615" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D615">
         <v>32</v>
@@ -15863,10 +15869,10 @@
         <v>376</v>
       </c>
       <c r="B616" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C616" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D616">
         <v>15</v>
@@ -15883,10 +15889,10 @@
         <v>377</v>
       </c>
       <c r="B617" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C617" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D617">
         <v>28</v>
@@ -15903,10 +15909,10 @@
         <v>272</v>
       </c>
       <c r="B618" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C618" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D618">
         <v>51</v>
@@ -15923,10 +15929,10 @@
         <v>272</v>
       </c>
       <c r="B619" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C619" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D619">
         <v>90</v>
@@ -15943,10 +15949,10 @@
         <v>378</v>
       </c>
       <c r="B620" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C620" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D620">
         <v>56</v>
@@ -15963,10 +15969,10 @@
         <v>379</v>
       </c>
       <c r="B621" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C621" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D621">
         <v>27</v>
@@ -15983,10 +15989,10 @@
         <v>380</v>
       </c>
       <c r="B622" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C622" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D622">
         <v>50</v>
@@ -16003,10 +16009,10 @@
         <v>381</v>
       </c>
       <c r="B623" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C623" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D623">
         <v>7</v>
@@ -16023,10 +16029,10 @@
         <v>382</v>
       </c>
       <c r="B624" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C624" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D624">
         <v>34</v>
@@ -16043,10 +16049,10 @@
         <v>37</v>
       </c>
       <c r="B625" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C625" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D625">
         <v>56</v>
@@ -16063,10 +16069,10 @@
         <v>38</v>
       </c>
       <c r="B626" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C626" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D626">
         <v>77</v>
@@ -16083,10 +16089,10 @@
         <v>383</v>
       </c>
       <c r="B627" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C627" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D627">
         <v>4</v>
@@ -16103,10 +16109,10 @@
         <v>384</v>
       </c>
       <c r="B628" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C628" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D628">
         <v>14</v>
@@ -16123,10 +16129,10 @@
         <v>157</v>
       </c>
       <c r="B629" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C629" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D629">
         <v>11</v>
@@ -16143,10 +16149,10 @@
         <v>158</v>
       </c>
       <c r="B630" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C630" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D630">
         <v>52</v>
@@ -16163,10 +16169,10 @@
         <v>6</v>
       </c>
       <c r="B631" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C631" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D631">
         <v>64</v>
@@ -16183,10 +16189,10 @@
         <v>385</v>
       </c>
       <c r="B632" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C632" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D632">
         <v>97</v>
@@ -16203,10 +16209,10 @@
         <v>386</v>
       </c>
       <c r="B633" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C633" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D633">
         <v>72</v>
@@ -16223,10 +16229,10 @@
         <v>387</v>
       </c>
       <c r="B634" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C634" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D634">
         <v>4</v>
@@ -16243,10 +16249,10 @@
         <v>388</v>
       </c>
       <c r="B635" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C635" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D635">
         <v>72</v>
@@ -16263,10 +16269,10 @@
         <v>389</v>
       </c>
       <c r="B636" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C636" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D636">
         <v>59</v>
@@ -16283,10 +16289,10 @@
         <v>390</v>
       </c>
       <c r="B637" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C637" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D637">
         <v>98</v>
@@ -16303,10 +16309,10 @@
         <v>391</v>
       </c>
       <c r="B638" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C638" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D638">
         <v>45</v>
@@ -16323,10 +16329,10 @@
         <v>152</v>
       </c>
       <c r="B639" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C639" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D639">
         <v>50</v>
@@ -16343,10 +16349,10 @@
         <v>153</v>
       </c>
       <c r="B640" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C640" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D640">
         <v>62</v>
@@ -16363,10 +16369,10 @@
         <v>138</v>
       </c>
       <c r="B641" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C641" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D641">
         <v>67</v>
@@ -16383,10 +16389,10 @@
         <v>139</v>
       </c>
       <c r="B642" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C642" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D642">
         <v>27</v>
@@ -16403,10 +16409,10 @@
         <v>37</v>
       </c>
       <c r="B643" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C643" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D643">
         <v>60</v>
@@ -16423,10 +16429,10 @@
         <v>38</v>
       </c>
       <c r="B644" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C644" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D644">
         <v>88</v>
@@ -16443,10 +16449,10 @@
         <v>6</v>
       </c>
       <c r="B645" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C645" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D645">
         <v>11</v>
@@ -16463,10 +16469,10 @@
         <v>272</v>
       </c>
       <c r="B646" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C646" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D646">
         <v>13</v>
@@ -16483,10 +16489,10 @@
         <v>13</v>
       </c>
       <c r="B647" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C647" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D647">
         <v>40</v>
@@ -16503,10 +16509,10 @@
         <v>14</v>
       </c>
       <c r="B648" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C648" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D648">
         <v>44</v>
@@ -16523,10 +16529,10 @@
         <v>71</v>
       </c>
       <c r="B649" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C649" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D649">
         <v>61</v>
@@ -16543,10 +16549,10 @@
         <v>70</v>
       </c>
       <c r="B650" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C650" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D650">
         <v>17</v>
@@ -16563,10 +16569,10 @@
         <v>152</v>
       </c>
       <c r="B651" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C651" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D651">
         <v>57</v>
@@ -16583,10 +16589,10 @@
         <v>153</v>
       </c>
       <c r="B652" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C652" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D652">
         <v>2</v>
@@ -16603,10 +16609,10 @@
         <v>64</v>
       </c>
       <c r="B653" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C653" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D653">
         <v>4</v>
@@ -16623,10 +16629,10 @@
         <v>44</v>
       </c>
       <c r="B654" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C654" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D654">
         <v>4</v>
@@ -16643,10 +16649,10 @@
         <v>154</v>
       </c>
       <c r="B655" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C655" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D655">
         <v>36</v>
@@ -16663,10 +16669,10 @@
         <v>155</v>
       </c>
       <c r="B656" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C656" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D656">
         <v>31</v>
@@ -16683,10 +16689,10 @@
         <v>37</v>
       </c>
       <c r="B657" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C657" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D657">
         <v>61</v>
@@ -16703,10 +16709,10 @@
         <v>38</v>
       </c>
       <c r="B658" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C658" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D658">
         <v>72</v>
@@ -16723,10 +16729,10 @@
         <v>392</v>
       </c>
       <c r="B659" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C659" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D659">
         <v>38</v>
@@ -16743,10 +16749,10 @@
         <v>393</v>
       </c>
       <c r="B660" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C660" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D660">
         <v>89</v>
@@ -16775,7 +16781,7 @@
         <v>53</v>
       </c>
       <c r="F661" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -16783,7 +16789,7 @@
         <v>394</v>
       </c>
       <c r="B662" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C662" t="s">
         <v>394</v>
@@ -16792,10 +16798,30 @@
         <v>50</v>
       </c>
       <c r="E662">
-        <v>99</v>
+        <v>297</v>
       </c>
       <c r="F662" t="s">
-        <v>1058</v>
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6">
+      <c r="A663" t="s">
+        <v>395</v>
+      </c>
+      <c r="B663" t="s">
+        <v>395</v>
+      </c>
+      <c r="C663" t="s">
+        <v>394</v>
+      </c>
+      <c r="D663">
+        <v>66</v>
+      </c>
+      <c r="E663">
+        <v>66</v>
+      </c>
+      <c r="F663" t="s">
+        <v>1060</v>
       </c>
     </row>
   </sheetData>

--- a/inventory_project/inventory_app/static/inventory_app/Inventory.xlsx
+++ b/inventory_project/inventory_app/static/inventory_app/Inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="1063">
   <si>
     <t>Part_Name</t>
   </si>
@@ -3082,6 +3082,9 @@
     <t>2200</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>AVEO</t>
   </si>
   <si>
@@ -3197,6 +3200,9 @@
   </si>
   <si>
     <t>06-04-2024 11:59</t>
+  </si>
+  <si>
+    <t>09-04-2024 23:19</t>
   </si>
 </sst>
 </file>
@@ -3558,7 +3564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F663"/>
+  <dimension ref="A1:F664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3592,7 +3598,7 @@
         <v>396</v>
       </c>
       <c r="C2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D2">
         <v>96</v>
@@ -3612,7 +3618,7 @@
         <v>397</v>
       </c>
       <c r="C3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D3">
         <v>67</v>
@@ -3632,7 +3638,7 @@
         <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D4">
         <v>66</v>
@@ -3652,7 +3658,7 @@
         <v>399</v>
       </c>
       <c r="C5" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D5">
         <v>80</v>
@@ -3672,7 +3678,7 @@
         <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -3692,7 +3698,7 @@
         <v>401</v>
       </c>
       <c r="C7" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D7">
         <v>73</v>
@@ -3712,7 +3718,7 @@
         <v>402</v>
       </c>
       <c r="C8" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3732,7 +3738,7 @@
         <v>403</v>
       </c>
       <c r="C9" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -3752,7 +3758,7 @@
         <v>404</v>
       </c>
       <c r="C10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D10">
         <v>64</v>
@@ -3772,7 +3778,7 @@
         <v>405</v>
       </c>
       <c r="C11" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3792,7 +3798,7 @@
         <v>406</v>
       </c>
       <c r="C12" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D12">
         <v>93</v>
@@ -3812,7 +3818,7 @@
         <v>407</v>
       </c>
       <c r="C13" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -3832,7 +3838,7 @@
         <v>408</v>
       </c>
       <c r="C14" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3852,7 +3858,7 @@
         <v>409</v>
       </c>
       <c r="C15" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D15">
         <v>80</v>
@@ -3872,7 +3878,7 @@
         <v>410</v>
       </c>
       <c r="C16" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D16">
         <v>72</v>
@@ -3892,7 +3898,7 @@
         <v>411</v>
       </c>
       <c r="C17" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D17">
         <v>83</v>
@@ -3912,7 +3918,7 @@
         <v>412</v>
       </c>
       <c r="C18" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D18">
         <v>83</v>
@@ -3932,7 +3938,7 @@
         <v>413</v>
       </c>
       <c r="C19" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D19">
         <v>76</v>
@@ -3952,7 +3958,7 @@
         <v>414</v>
       </c>
       <c r="C20" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D20">
         <v>44</v>
@@ -3972,7 +3978,7 @@
         <v>415</v>
       </c>
       <c r="C21" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D21">
         <v>93</v>
@@ -3992,7 +3998,7 @@
         <v>416</v>
       </c>
       <c r="C22" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -4012,7 +4018,7 @@
         <v>417</v>
       </c>
       <c r="C23" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D23">
         <v>62</v>
@@ -4032,7 +4038,7 @@
         <v>418</v>
       </c>
       <c r="C24" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D24">
         <v>34</v>
@@ -4052,7 +4058,7 @@
         <v>419</v>
       </c>
       <c r="C25" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -4072,7 +4078,7 @@
         <v>420</v>
       </c>
       <c r="C26" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D26">
         <v>62</v>
@@ -4092,7 +4098,7 @@
         <v>421</v>
       </c>
       <c r="C27" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D27">
         <v>58</v>
@@ -4112,7 +4118,7 @@
         <v>422</v>
       </c>
       <c r="C28" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D28">
         <v>60</v>
@@ -4132,7 +4138,7 @@
         <v>423</v>
       </c>
       <c r="C29" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D29">
         <v>48</v>
@@ -4152,7 +4158,7 @@
         <v>424</v>
       </c>
       <c r="C30" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D30">
         <v>79</v>
@@ -4172,7 +4178,7 @@
         <v>425</v>
       </c>
       <c r="C31" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D31">
         <v>83</v>
@@ -4192,7 +4198,7 @@
         <v>426</v>
       </c>
       <c r="C32" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D32">
         <v>45</v>
@@ -4212,7 +4218,7 @@
         <v>427</v>
       </c>
       <c r="C33" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D33">
         <v>84</v>
@@ -4232,7 +4238,7 @@
         <v>428</v>
       </c>
       <c r="C34" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D34">
         <v>13</v>
@@ -4252,7 +4258,7 @@
         <v>429</v>
       </c>
       <c r="C35" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D35">
         <v>49</v>
@@ -4272,7 +4278,7 @@
         <v>430</v>
       </c>
       <c r="C36" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D36">
         <v>59</v>
@@ -4292,7 +4298,7 @@
         <v>431</v>
       </c>
       <c r="C37" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D37">
         <v>68</v>
@@ -4312,7 +4318,7 @@
         <v>432</v>
       </c>
       <c r="C38" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D38">
         <v>88</v>
@@ -4332,7 +4338,7 @@
         <v>433</v>
       </c>
       <c r="C39" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D39">
         <v>54</v>
@@ -4352,7 +4358,7 @@
         <v>434</v>
       </c>
       <c r="C40" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D40">
         <v>80</v>
@@ -4372,7 +4378,7 @@
         <v>435</v>
       </c>
       <c r="C41" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D41">
         <v>33</v>
@@ -4392,7 +4398,7 @@
         <v>436</v>
       </c>
       <c r="C42" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D42">
         <v>35</v>
@@ -4412,7 +4418,7 @@
         <v>437</v>
       </c>
       <c r="C43" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -4432,7 +4438,7 @@
         <v>438</v>
       </c>
       <c r="C44" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D44">
         <v>58</v>
@@ -4452,7 +4458,7 @@
         <v>439</v>
       </c>
       <c r="C45" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D45">
         <v>68</v>
@@ -4472,7 +4478,7 @@
         <v>440</v>
       </c>
       <c r="C46" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D46">
         <v>67</v>
@@ -4492,7 +4498,7 @@
         <v>441</v>
       </c>
       <c r="C47" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -4512,7 +4518,7 @@
         <v>442</v>
       </c>
       <c r="C48" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D48">
         <v>50</v>
@@ -4532,7 +4538,7 @@
         <v>443</v>
       </c>
       <c r="C49" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -4552,7 +4558,7 @@
         <v>444</v>
       </c>
       <c r="C50" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D50">
         <v>40</v>
@@ -4572,7 +4578,7 @@
         <v>445</v>
       </c>
       <c r="C51" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D51">
         <v>37</v>
@@ -4592,7 +4598,7 @@
         <v>446</v>
       </c>
       <c r="C52" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D52">
         <v>18</v>
@@ -4612,7 +4618,7 @@
         <v>447</v>
       </c>
       <c r="C53" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D53">
         <v>25</v>
@@ -4632,7 +4638,7 @@
         <v>448</v>
       </c>
       <c r="C54" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D54">
         <v>24</v>
@@ -4652,7 +4658,7 @@
         <v>449</v>
       </c>
       <c r="C55" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D55">
         <v>62</v>
@@ -4672,7 +4678,7 @@
         <v>450</v>
       </c>
       <c r="C56" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -4692,7 +4698,7 @@
         <v>451</v>
       </c>
       <c r="C57" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D57">
         <v>64</v>
@@ -4712,7 +4718,7 @@
         <v>452</v>
       </c>
       <c r="C58" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D58">
         <v>30</v>
@@ -4732,7 +4738,7 @@
         <v>453</v>
       </c>
       <c r="C59" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D59">
         <v>87</v>
@@ -4752,7 +4758,7 @@
         <v>454</v>
       </c>
       <c r="C60" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -4772,7 +4778,7 @@
         <v>455</v>
       </c>
       <c r="C61" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D61">
         <v>80</v>
@@ -4792,7 +4798,7 @@
         <v>456</v>
       </c>
       <c r="C62" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D62">
         <v>99</v>
@@ -4812,7 +4818,7 @@
         <v>457</v>
       </c>
       <c r="C63" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D63">
         <v>47</v>
@@ -4832,7 +4838,7 @@
         <v>458</v>
       </c>
       <c r="C64" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D64">
         <v>31</v>
@@ -4852,7 +4858,7 @@
         <v>459</v>
       </c>
       <c r="C65" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D65">
         <v>59</v>
@@ -4872,7 +4878,7 @@
         <v>460</v>
       </c>
       <c r="C66" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D66">
         <v>40</v>
@@ -4892,7 +4898,7 @@
         <v>461</v>
       </c>
       <c r="C67" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D67">
         <v>39</v>
@@ -4912,7 +4918,7 @@
         <v>462</v>
       </c>
       <c r="C68" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D68">
         <v>70</v>
@@ -4932,7 +4938,7 @@
         <v>463</v>
       </c>
       <c r="C69" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D69">
         <v>56</v>
@@ -4952,7 +4958,7 @@
         <v>464</v>
       </c>
       <c r="C70" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D70">
         <v>72</v>
@@ -4972,7 +4978,7 @@
         <v>465</v>
       </c>
       <c r="C71" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4992,7 +4998,7 @@
         <v>466</v>
       </c>
       <c r="C72" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D72">
         <v>16</v>
@@ -5012,7 +5018,7 @@
         <v>467</v>
       </c>
       <c r="C73" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -5032,7 +5038,7 @@
         <v>468</v>
       </c>
       <c r="C74" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D74">
         <v>56</v>
@@ -5052,7 +5058,7 @@
         <v>469</v>
       </c>
       <c r="C75" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D75">
         <v>14</v>
@@ -5072,7 +5078,7 @@
         <v>444</v>
       </c>
       <c r="C76" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D76">
         <v>49</v>
@@ -5092,7 +5098,7 @@
         <v>470</v>
       </c>
       <c r="C77" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D77">
         <v>74</v>
@@ -5112,7 +5118,7 @@
         <v>471</v>
       </c>
       <c r="C78" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D78">
         <v>35</v>
@@ -5132,7 +5138,7 @@
         <v>472</v>
       </c>
       <c r="C79" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D79">
         <v>21</v>
@@ -5152,7 +5158,7 @@
         <v>473</v>
       </c>
       <c r="C80" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D80">
         <v>36</v>
@@ -5172,7 +5178,7 @@
         <v>474</v>
       </c>
       <c r="C81" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D81">
         <v>39</v>
@@ -5192,7 +5198,7 @@
         <v>475</v>
       </c>
       <c r="C82" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D82">
         <v>9</v>
@@ -5212,7 +5218,7 @@
         <v>476</v>
       </c>
       <c r="C83" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D83">
         <v>14</v>
@@ -5232,7 +5238,7 @@
         <v>477</v>
       </c>
       <c r="C84" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D84">
         <v>32</v>
@@ -5252,7 +5258,7 @@
         <v>478</v>
       </c>
       <c r="C85" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -5272,7 +5278,7 @@
         <v>479</v>
       </c>
       <c r="C86" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -5292,7 +5298,7 @@
         <v>480</v>
       </c>
       <c r="C87" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D87">
         <v>98</v>
@@ -5312,7 +5318,7 @@
         <v>481</v>
       </c>
       <c r="C88" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D88">
         <v>31</v>
@@ -5332,7 +5338,7 @@
         <v>482</v>
       </c>
       <c r="C89" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D89">
         <v>56</v>
@@ -5352,7 +5358,7 @@
         <v>483</v>
       </c>
       <c r="C90" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D90">
         <v>36</v>
@@ -5372,7 +5378,7 @@
         <v>484</v>
       </c>
       <c r="C91" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D91">
         <v>45</v>
@@ -5392,7 +5398,7 @@
         <v>485</v>
       </c>
       <c r="C92" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D92">
         <v>69</v>
@@ -5412,7 +5418,7 @@
         <v>486</v>
       </c>
       <c r="C93" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D93">
         <v>47</v>
@@ -5432,7 +5438,7 @@
         <v>487</v>
       </c>
       <c r="C94" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D94">
         <v>34</v>
@@ -5452,7 +5458,7 @@
         <v>488</v>
       </c>
       <c r="C95" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D95">
         <v>9</v>
@@ -5472,7 +5478,7 @@
         <v>489</v>
       </c>
       <c r="C96" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D96">
         <v>67</v>
@@ -5492,7 +5498,7 @@
         <v>490</v>
       </c>
       <c r="C97" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D97">
         <v>23</v>
@@ -5512,7 +5518,7 @@
         <v>491</v>
       </c>
       <c r="C98" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D98">
         <v>48</v>
@@ -5532,7 +5538,7 @@
         <v>492</v>
       </c>
       <c r="C99" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D99">
         <v>20</v>
@@ -5552,7 +5558,7 @@
         <v>493</v>
       </c>
       <c r="C100" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D100">
         <v>79</v>
@@ -5572,7 +5578,7 @@
         <v>494</v>
       </c>
       <c r="C101" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D101">
         <v>98</v>
@@ -5592,7 +5598,7 @@
         <v>495</v>
       </c>
       <c r="C102" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D102">
         <v>58</v>
@@ -5612,7 +5618,7 @@
         <v>496</v>
       </c>
       <c r="C103" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D103">
         <v>57</v>
@@ -5632,7 +5638,7 @@
         <v>497</v>
       </c>
       <c r="C104" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D104">
         <v>84</v>
@@ -5652,7 +5658,7 @@
         <v>498</v>
       </c>
       <c r="C105" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D105">
         <v>95</v>
@@ -5672,7 +5678,7 @@
         <v>499</v>
       </c>
       <c r="C106" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D106">
         <v>11</v>
@@ -5692,7 +5698,7 @@
         <v>500</v>
       </c>
       <c r="C107" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D107">
         <v>58</v>
@@ -5712,7 +5718,7 @@
         <v>501</v>
       </c>
       <c r="C108" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -5732,7 +5738,7 @@
         <v>502</v>
       </c>
       <c r="C109" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D109">
         <v>75</v>
@@ -5752,7 +5758,7 @@
         <v>503</v>
       </c>
       <c r="C110" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D110">
         <v>35</v>
@@ -5772,7 +5778,7 @@
         <v>504</v>
       </c>
       <c r="C111" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D111">
         <v>87</v>
@@ -5792,7 +5798,7 @@
         <v>505</v>
       </c>
       <c r="C112" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -5812,7 +5818,7 @@
         <v>506</v>
       </c>
       <c r="C113" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D113">
         <v>15</v>
@@ -5832,7 +5838,7 @@
         <v>491</v>
       </c>
       <c r="C114" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D114">
         <v>28</v>
@@ -5852,7 +5858,7 @@
         <v>490</v>
       </c>
       <c r="C115" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D115">
         <v>81</v>
@@ -5872,7 +5878,7 @@
         <v>507</v>
       </c>
       <c r="C116" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D116">
         <v>100</v>
@@ -5892,7 +5898,7 @@
         <v>508</v>
       </c>
       <c r="C117" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D117">
         <v>81</v>
@@ -5912,7 +5918,7 @@
         <v>494</v>
       </c>
       <c r="C118" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D118">
         <v>78</v>
@@ -5932,7 +5938,7 @@
         <v>495</v>
       </c>
       <c r="C119" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D119">
         <v>100</v>
@@ -5952,7 +5958,7 @@
         <v>509</v>
       </c>
       <c r="C120" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D120">
         <v>9</v>
@@ -5972,7 +5978,7 @@
         <v>510</v>
       </c>
       <c r="C121" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D121">
         <v>45</v>
@@ -5992,7 +5998,7 @@
         <v>511</v>
       </c>
       <c r="C122" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D122">
         <v>64</v>
@@ -6012,7 +6018,7 @@
         <v>512</v>
       </c>
       <c r="C123" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D123">
         <v>58</v>
@@ -6032,7 +6038,7 @@
         <v>498</v>
       </c>
       <c r="C124" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D124">
         <v>60</v>
@@ -6052,7 +6058,7 @@
         <v>513</v>
       </c>
       <c r="C125" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D125">
         <v>94</v>
@@ -6072,7 +6078,7 @@
         <v>514</v>
       </c>
       <c r="C126" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D126">
         <v>50</v>
@@ -6092,7 +6098,7 @@
         <v>515</v>
       </c>
       <c r="C127" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D127">
         <v>70</v>
@@ -6112,7 +6118,7 @@
         <v>516</v>
       </c>
       <c r="C128" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D128">
         <v>10</v>
@@ -6132,7 +6138,7 @@
         <v>517</v>
       </c>
       <c r="C129" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D129">
         <v>86</v>
@@ -6152,7 +6158,7 @@
         <v>518</v>
       </c>
       <c r="C130" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D130">
         <v>27</v>
@@ -6172,7 +6178,7 @@
         <v>519</v>
       </c>
       <c r="C131" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D131">
         <v>79</v>
@@ -6192,7 +6198,7 @@
         <v>520</v>
       </c>
       <c r="C132" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D132">
         <v>69</v>
@@ -6212,7 +6218,7 @@
         <v>521</v>
       </c>
       <c r="C133" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D133">
         <v>41</v>
@@ -6232,7 +6238,7 @@
         <v>522</v>
       </c>
       <c r="C134" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D134">
         <v>27</v>
@@ -6252,7 +6258,7 @@
         <v>523</v>
       </c>
       <c r="C135" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D135">
         <v>39</v>
@@ -6272,7 +6278,7 @@
         <v>524</v>
       </c>
       <c r="C136" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D136">
         <v>100</v>
@@ -6292,7 +6298,7 @@
         <v>525</v>
       </c>
       <c r="C137" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D137">
         <v>42</v>
@@ -6312,7 +6318,7 @@
         <v>526</v>
       </c>
       <c r="C138" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D138">
         <v>73</v>
@@ -6332,7 +6338,7 @@
         <v>527</v>
       </c>
       <c r="C139" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D139">
         <v>25</v>
@@ -6352,7 +6358,7 @@
         <v>528</v>
       </c>
       <c r="C140" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D140">
         <v>44</v>
@@ -6372,7 +6378,7 @@
         <v>529</v>
       </c>
       <c r="C141" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D141">
         <v>82</v>
@@ -6392,7 +6398,7 @@
         <v>530</v>
       </c>
       <c r="C142" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D142">
         <v>29</v>
@@ -6412,7 +6418,7 @@
         <v>531</v>
       </c>
       <c r="C143" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -6432,7 +6438,7 @@
         <v>532</v>
       </c>
       <c r="C144" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D144">
         <v>21</v>
@@ -6452,7 +6458,7 @@
         <v>502</v>
       </c>
       <c r="C145" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D145">
         <v>29</v>
@@ -6472,7 +6478,7 @@
         <v>533</v>
       </c>
       <c r="C146" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D146">
         <v>78</v>
@@ -6492,7 +6498,7 @@
         <v>534</v>
       </c>
       <c r="C147" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D147">
         <v>61</v>
@@ -6512,7 +6518,7 @@
         <v>535</v>
       </c>
       <c r="C148" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D148">
         <v>26</v>
@@ -6532,7 +6538,7 @@
         <v>536</v>
       </c>
       <c r="C149" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -6552,7 +6558,7 @@
         <v>537</v>
       </c>
       <c r="C150" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D150">
         <v>35</v>
@@ -6572,7 +6578,7 @@
         <v>538</v>
       </c>
       <c r="C151" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D151">
         <v>46</v>
@@ -6592,7 +6598,7 @@
         <v>539</v>
       </c>
       <c r="C152" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D152">
         <v>69</v>
@@ -6612,7 +6618,7 @@
         <v>540</v>
       </c>
       <c r="C153" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D153">
         <v>19</v>
@@ -6632,7 +6638,7 @@
         <v>541</v>
       </c>
       <c r="C154" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D154">
         <v>8</v>
@@ -6652,7 +6658,7 @@
         <v>542</v>
       </c>
       <c r="C155" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D155">
         <v>39</v>
@@ -6672,7 +6678,7 @@
         <v>543</v>
       </c>
       <c r="C156" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D156">
         <v>90</v>
@@ -6692,7 +6698,7 @@
         <v>544</v>
       </c>
       <c r="C157" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D157">
         <v>53</v>
@@ -6712,7 +6718,7 @@
         <v>545</v>
       </c>
       <c r="C158" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D158">
         <v>99</v>
@@ -6732,7 +6738,7 @@
         <v>546</v>
       </c>
       <c r="C159" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D159">
         <v>32</v>
@@ -6752,7 +6758,7 @@
         <v>547</v>
       </c>
       <c r="C160" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -6772,7 +6778,7 @@
         <v>548</v>
       </c>
       <c r="C161" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D161">
         <v>36</v>
@@ -6792,7 +6798,7 @@
         <v>549</v>
       </c>
       <c r="C162" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D162">
         <v>67</v>
@@ -6812,7 +6818,7 @@
         <v>550</v>
       </c>
       <c r="C163" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D163">
         <v>39</v>
@@ -6832,7 +6838,7 @@
         <v>551</v>
       </c>
       <c r="C164" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D164">
         <v>97</v>
@@ -6852,7 +6858,7 @@
         <v>552</v>
       </c>
       <c r="C165" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D165">
         <v>8</v>
@@ -6872,7 +6878,7 @@
         <v>553</v>
       </c>
       <c r="C166" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D166">
         <v>49</v>
@@ -6892,7 +6898,7 @@
         <v>554</v>
       </c>
       <c r="C167" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D167">
         <v>19</v>
@@ -6912,7 +6918,7 @@
         <v>555</v>
       </c>
       <c r="C168" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D168">
         <v>30</v>
@@ -6932,7 +6938,7 @@
         <v>556</v>
       </c>
       <c r="C169" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D169">
         <v>100</v>
@@ -6952,7 +6958,7 @@
         <v>557</v>
       </c>
       <c r="C170" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -6972,7 +6978,7 @@
         <v>558</v>
       </c>
       <c r="C171" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D171">
         <v>59</v>
@@ -6992,7 +6998,7 @@
         <v>559</v>
       </c>
       <c r="C172" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D172">
         <v>55</v>
@@ -7012,7 +7018,7 @@
         <v>560</v>
       </c>
       <c r="C173" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D173">
         <v>14</v>
@@ -7032,7 +7038,7 @@
         <v>561</v>
       </c>
       <c r="C174" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D174">
         <v>9</v>
@@ -7052,7 +7058,7 @@
         <v>562</v>
       </c>
       <c r="C175" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D175">
         <v>39</v>
@@ -7072,7 +7078,7 @@
         <v>563</v>
       </c>
       <c r="C176" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D176">
         <v>73</v>
@@ -7092,7 +7098,7 @@
         <v>564</v>
       </c>
       <c r="C177" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D177">
         <v>13</v>
@@ -7112,7 +7118,7 @@
         <v>565</v>
       </c>
       <c r="C178" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D178">
         <v>31</v>
@@ -7132,7 +7138,7 @@
         <v>566</v>
       </c>
       <c r="C179" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D179">
         <v>83</v>
@@ -7152,7 +7158,7 @@
         <v>567</v>
       </c>
       <c r="C180" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D180">
         <v>36</v>
@@ -7172,7 +7178,7 @@
         <v>568</v>
       </c>
       <c r="C181" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D181">
         <v>48</v>
@@ -7192,7 +7198,7 @@
         <v>569</v>
       </c>
       <c r="C182" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D182">
         <v>41</v>
@@ -7212,7 +7218,7 @@
         <v>570</v>
       </c>
       <c r="C183" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D183">
         <v>76</v>
@@ -7232,7 +7238,7 @@
         <v>571</v>
       </c>
       <c r="C184" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D184">
         <v>15</v>
@@ -7252,7 +7258,7 @@
         <v>572</v>
       </c>
       <c r="C185" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D185">
         <v>96</v>
@@ -7272,7 +7278,7 @@
         <v>573</v>
       </c>
       <c r="C186" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D186">
         <v>32</v>
@@ -7292,7 +7298,7 @@
         <v>574</v>
       </c>
       <c r="C187" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D187">
         <v>62</v>
@@ -7312,7 +7318,7 @@
         <v>575</v>
       </c>
       <c r="C188" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D188">
         <v>25</v>
@@ -7332,7 +7338,7 @@
         <v>576</v>
       </c>
       <c r="C189" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D189">
         <v>77</v>
@@ -7352,7 +7358,7 @@
         <v>577</v>
       </c>
       <c r="C190" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D190">
         <v>17</v>
@@ -7372,7 +7378,7 @@
         <v>578</v>
       </c>
       <c r="C191" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D191">
         <v>45</v>
@@ -7392,7 +7398,7 @@
         <v>579</v>
       </c>
       <c r="C192" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D192">
         <v>68</v>
@@ -7412,7 +7418,7 @@
         <v>580</v>
       </c>
       <c r="C193" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D193">
         <v>86</v>
@@ -7432,7 +7438,7 @@
         <v>581</v>
       </c>
       <c r="C194" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D194">
         <v>70</v>
@@ -7452,7 +7458,7 @@
         <v>582</v>
       </c>
       <c r="C195" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D195">
         <v>56</v>
@@ -7472,7 +7478,7 @@
         <v>583</v>
       </c>
       <c r="C196" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D196">
         <v>48</v>
@@ -7492,7 +7498,7 @@
         <v>584</v>
       </c>
       <c r="C197" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D197">
         <v>89</v>
@@ -7512,7 +7518,7 @@
         <v>585</v>
       </c>
       <c r="C198" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D198">
         <v>82</v>
@@ -7532,7 +7538,7 @@
         <v>586</v>
       </c>
       <c r="C199" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D199">
         <v>24</v>
@@ -7552,7 +7558,7 @@
         <v>587</v>
       </c>
       <c r="C200" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D200">
         <v>16</v>
@@ -7572,7 +7578,7 @@
         <v>588</v>
       </c>
       <c r="C201" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D201">
         <v>31</v>
@@ -7592,7 +7598,7 @@
         <v>589</v>
       </c>
       <c r="C202" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D202">
         <v>97</v>
@@ -7612,7 +7618,7 @@
         <v>590</v>
       </c>
       <c r="C203" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D203">
         <v>33</v>
@@ -7632,7 +7638,7 @@
         <v>591</v>
       </c>
       <c r="C204" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D204">
         <v>88</v>
@@ -7652,7 +7658,7 @@
         <v>592</v>
       </c>
       <c r="C205" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D205">
         <v>37</v>
@@ -7672,7 +7678,7 @@
         <v>593</v>
       </c>
       <c r="C206" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D206">
         <v>75</v>
@@ -7692,7 +7698,7 @@
         <v>594</v>
       </c>
       <c r="C207" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D207">
         <v>12</v>
@@ -7712,7 +7718,7 @@
         <v>595</v>
       </c>
       <c r="C208" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D208">
         <v>56</v>
@@ -7732,7 +7738,7 @@
         <v>596</v>
       </c>
       <c r="C209" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D209">
         <v>23</v>
@@ -7752,7 +7758,7 @@
         <v>597</v>
       </c>
       <c r="C210" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D210">
         <v>49</v>
@@ -7772,7 +7778,7 @@
         <v>598</v>
       </c>
       <c r="C211" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D211">
         <v>27</v>
@@ -7792,7 +7798,7 @@
         <v>599</v>
       </c>
       <c r="C212" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D212">
         <v>74</v>
@@ -7812,7 +7818,7 @@
         <v>600</v>
       </c>
       <c r="C213" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D213">
         <v>67</v>
@@ -7832,7 +7838,7 @@
         <v>601</v>
       </c>
       <c r="C214" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D214">
         <v>48</v>
@@ -7852,7 +7858,7 @@
         <v>602</v>
       </c>
       <c r="C215" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D215">
         <v>42</v>
@@ -7872,7 +7878,7 @@
         <v>603</v>
       </c>
       <c r="C216" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D216">
         <v>13</v>
@@ -7892,7 +7898,7 @@
         <v>604</v>
       </c>
       <c r="C217" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D217">
         <v>73</v>
@@ -7912,7 +7918,7 @@
         <v>605</v>
       </c>
       <c r="C218" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D218">
         <v>46</v>
@@ -7932,7 +7938,7 @@
         <v>606</v>
       </c>
       <c r="C219" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D219">
         <v>9</v>
@@ -7952,7 +7958,7 @@
         <v>607</v>
       </c>
       <c r="C220" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D220">
         <v>31</v>
@@ -7972,7 +7978,7 @@
         <v>608</v>
       </c>
       <c r="C221" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D221">
         <v>50</v>
@@ -7992,7 +7998,7 @@
         <v>609</v>
       </c>
       <c r="C222" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D222">
         <v>28</v>
@@ -8012,7 +8018,7 @@
         <v>610</v>
       </c>
       <c r="C223" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D223">
         <v>82</v>
@@ -8032,7 +8038,7 @@
         <v>611</v>
       </c>
       <c r="C224" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D224">
         <v>89</v>
@@ -8052,7 +8058,7 @@
         <v>612</v>
       </c>
       <c r="C225" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D225">
         <v>67</v>
@@ -8072,7 +8078,7 @@
         <v>613</v>
       </c>
       <c r="C226" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D226">
         <v>91</v>
@@ -8092,7 +8098,7 @@
         <v>614</v>
       </c>
       <c r="C227" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -8112,7 +8118,7 @@
         <v>615</v>
       </c>
       <c r="C228" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D228">
         <v>53</v>
@@ -8132,7 +8138,7 @@
         <v>616</v>
       </c>
       <c r="C229" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D229">
         <v>65</v>
@@ -8152,7 +8158,7 @@
         <v>617</v>
       </c>
       <c r="C230" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D230">
         <v>67</v>
@@ -8172,7 +8178,7 @@
         <v>618</v>
       </c>
       <c r="C231" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D231">
         <v>62</v>
@@ -8192,7 +8198,7 @@
         <v>619</v>
       </c>
       <c r="C232" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D232">
         <v>57</v>
@@ -8212,7 +8218,7 @@
         <v>620</v>
       </c>
       <c r="C233" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D233">
         <v>10</v>
@@ -8232,7 +8238,7 @@
         <v>621</v>
       </c>
       <c r="C234" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D234">
         <v>37</v>
@@ -8252,7 +8258,7 @@
         <v>622</v>
       </c>
       <c r="C235" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D235">
         <v>90</v>
@@ -8272,7 +8278,7 @@
         <v>623</v>
       </c>
       <c r="C236" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D236">
         <v>7</v>
@@ -8292,7 +8298,7 @@
         <v>624</v>
       </c>
       <c r="C237" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D237">
         <v>56</v>
@@ -8312,7 +8318,7 @@
         <v>625</v>
       </c>
       <c r="C238" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D238">
         <v>50</v>
@@ -8332,7 +8338,7 @@
         <v>626</v>
       </c>
       <c r="C239" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D239">
         <v>26</v>
@@ -8352,7 +8358,7 @@
         <v>627</v>
       </c>
       <c r="C240" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D240">
         <v>69</v>
@@ -8372,7 +8378,7 @@
         <v>628</v>
       </c>
       <c r="C241" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D241">
         <v>6</v>
@@ -8392,7 +8398,7 @@
         <v>629</v>
       </c>
       <c r="C242" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D242">
         <v>90</v>
@@ -8412,7 +8418,7 @@
         <v>630</v>
       </c>
       <c r="C243" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D243">
         <v>62</v>
@@ -8432,7 +8438,7 @@
         <v>631</v>
       </c>
       <c r="C244" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D244">
         <v>94</v>
@@ -8452,7 +8458,7 @@
         <v>632</v>
       </c>
       <c r="C245" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D245">
         <v>85</v>
@@ -8472,7 +8478,7 @@
         <v>633</v>
       </c>
       <c r="C246" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D246">
         <v>69</v>
@@ -8492,7 +8498,7 @@
         <v>634</v>
       </c>
       <c r="C247" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D247">
         <v>40</v>
@@ -8512,7 +8518,7 @@
         <v>635</v>
       </c>
       <c r="C248" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D248">
         <v>93</v>
@@ -8532,7 +8538,7 @@
         <v>636</v>
       </c>
       <c r="C249" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D249">
         <v>43</v>
@@ -8552,7 +8558,7 @@
         <v>637</v>
       </c>
       <c r="C250" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D250">
         <v>31</v>
@@ -8572,7 +8578,7 @@
         <v>638</v>
       </c>
       <c r="C251" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D251">
         <v>92</v>
@@ -8592,7 +8598,7 @@
         <v>639</v>
       </c>
       <c r="C252" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D252">
         <v>45</v>
@@ -8612,7 +8618,7 @@
         <v>640</v>
       </c>
       <c r="C253" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D253">
         <v>66</v>
@@ -8632,7 +8638,7 @@
         <v>641</v>
       </c>
       <c r="C254" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D254">
         <v>93</v>
@@ -8652,7 +8658,7 @@
         <v>642</v>
       </c>
       <c r="C255" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D255">
         <v>15</v>
@@ -8672,7 +8678,7 @@
         <v>643</v>
       </c>
       <c r="C256" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D256">
         <v>31</v>
@@ -8692,7 +8698,7 @@
         <v>644</v>
       </c>
       <c r="C257" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D257">
         <v>12</v>
@@ -8712,7 +8718,7 @@
         <v>645</v>
       </c>
       <c r="C258" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D258">
         <v>27</v>
@@ -8732,7 +8738,7 @@
         <v>646</v>
       </c>
       <c r="C259" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D259">
         <v>99</v>
@@ -8752,7 +8758,7 @@
         <v>647</v>
       </c>
       <c r="C260" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D260">
         <v>45</v>
@@ -8772,7 +8778,7 @@
         <v>648</v>
       </c>
       <c r="C261" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D261">
         <v>74</v>
@@ -8792,7 +8798,7 @@
         <v>649</v>
       </c>
       <c r="C262" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D262">
         <v>58</v>
@@ -8812,7 +8818,7 @@
         <v>650</v>
       </c>
       <c r="C263" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D263">
         <v>55</v>
@@ -8832,7 +8838,7 @@
         <v>651</v>
       </c>
       <c r="C264" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D264">
         <v>92</v>
@@ -8852,7 +8858,7 @@
         <v>652</v>
       </c>
       <c r="C265" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D265">
         <v>70</v>
@@ -8872,7 +8878,7 @@
         <v>653</v>
       </c>
       <c r="C266" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D266">
         <v>95</v>
@@ -8892,7 +8898,7 @@
         <v>654</v>
       </c>
       <c r="C267" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D267">
         <v>84</v>
@@ -8912,7 +8918,7 @@
         <v>655</v>
       </c>
       <c r="C268" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D268">
         <v>43</v>
@@ -8932,7 +8938,7 @@
         <v>656</v>
       </c>
       <c r="C269" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D269">
         <v>71</v>
@@ -8952,7 +8958,7 @@
         <v>657</v>
       </c>
       <c r="C270" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D270">
         <v>23</v>
@@ -8972,7 +8978,7 @@
         <v>658</v>
       </c>
       <c r="C271" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D271">
         <v>43</v>
@@ -8992,7 +8998,7 @@
         <v>659</v>
       </c>
       <c r="C272" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D272">
         <v>91</v>
@@ -9012,7 +9018,7 @@
         <v>660</v>
       </c>
       <c r="C273" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D273">
         <v>79</v>
@@ -9032,7 +9038,7 @@
         <v>661</v>
       </c>
       <c r="C274" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D274">
         <v>32</v>
@@ -9052,7 +9058,7 @@
         <v>662</v>
       </c>
       <c r="C275" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D275">
         <v>97</v>
@@ -9072,7 +9078,7 @@
         <v>663</v>
       </c>
       <c r="C276" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D276">
         <v>15</v>
@@ -9092,7 +9098,7 @@
         <v>664</v>
       </c>
       <c r="C277" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D277">
         <v>97</v>
@@ -9112,7 +9118,7 @@
         <v>665</v>
       </c>
       <c r="C278" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D278">
         <v>88</v>
@@ -9132,7 +9138,7 @@
         <v>666</v>
       </c>
       <c r="C279" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D279">
         <v>73</v>
@@ -9152,7 +9158,7 @@
         <v>667</v>
       </c>
       <c r="C280" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D280">
         <v>50</v>
@@ -9172,7 +9178,7 @@
         <v>668</v>
       </c>
       <c r="C281" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D281">
         <v>45</v>
@@ -9192,7 +9198,7 @@
         <v>669</v>
       </c>
       <c r="C282" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D282">
         <v>69</v>
@@ -9212,7 +9218,7 @@
         <v>670</v>
       </c>
       <c r="C283" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D283">
         <v>87</v>
@@ -9232,7 +9238,7 @@
         <v>671</v>
       </c>
       <c r="C284" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D284">
         <v>33</v>
@@ -9252,7 +9258,7 @@
         <v>672</v>
       </c>
       <c r="C285" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D285">
         <v>28</v>
@@ -9272,7 +9278,7 @@
         <v>673</v>
       </c>
       <c r="C286" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D286">
         <v>83</v>
@@ -9292,7 +9298,7 @@
         <v>674</v>
       </c>
       <c r="C287" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D287">
         <v>20</v>
@@ -9312,7 +9318,7 @@
         <v>673</v>
       </c>
       <c r="C288" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D288">
         <v>86</v>
@@ -9332,7 +9338,7 @@
         <v>674</v>
       </c>
       <c r="C289" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D289">
         <v>81</v>
@@ -9352,7 +9358,7 @@
         <v>675</v>
       </c>
       <c r="C290" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D290">
         <v>85</v>
@@ -9372,7 +9378,7 @@
         <v>676</v>
       </c>
       <c r="C291" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D291">
         <v>12</v>
@@ -9392,7 +9398,7 @@
         <v>677</v>
       </c>
       <c r="C292" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D292">
         <v>12</v>
@@ -9412,7 +9418,7 @@
         <v>678</v>
       </c>
       <c r="C293" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D293">
         <v>23</v>
@@ -9432,7 +9438,7 @@
         <v>679</v>
       </c>
       <c r="C294" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D294">
         <v>94</v>
@@ -9452,7 +9458,7 @@
         <v>680</v>
       </c>
       <c r="C295" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D295">
         <v>41</v>
@@ -9472,7 +9478,7 @@
         <v>681</v>
       </c>
       <c r="C296" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D296">
         <v>18</v>
@@ -9492,7 +9498,7 @@
         <v>682</v>
       </c>
       <c r="C297" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D297">
         <v>59</v>
@@ -9512,7 +9518,7 @@
         <v>683</v>
       </c>
       <c r="C298" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D298">
         <v>40</v>
@@ -9532,7 +9538,7 @@
         <v>684</v>
       </c>
       <c r="C299" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D299">
         <v>27</v>
@@ -9552,7 +9558,7 @@
         <v>685</v>
       </c>
       <c r="C300" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D300">
         <v>44</v>
@@ -9572,7 +9578,7 @@
         <v>686</v>
       </c>
       <c r="C301" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D301">
         <v>87</v>
@@ -9592,7 +9598,7 @@
         <v>687</v>
       </c>
       <c r="C302" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D302">
         <v>44</v>
@@ -9612,7 +9618,7 @@
         <v>688</v>
       </c>
       <c r="C303" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D303">
         <v>99</v>
@@ -9632,7 +9638,7 @@
         <v>689</v>
       </c>
       <c r="C304" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D304">
         <v>100</v>
@@ -9652,7 +9658,7 @@
         <v>690</v>
       </c>
       <c r="C305" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D305">
         <v>50</v>
@@ -9672,7 +9678,7 @@
         <v>691</v>
       </c>
       <c r="C306" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D306">
         <v>62</v>
@@ -9692,7 +9698,7 @@
         <v>692</v>
       </c>
       <c r="C307" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D307">
         <v>2</v>
@@ -9712,7 +9718,7 @@
         <v>693</v>
       </c>
       <c r="C308" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D308">
         <v>45</v>
@@ -9732,7 +9738,7 @@
         <v>694</v>
       </c>
       <c r="C309" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D309">
         <v>91</v>
@@ -9752,7 +9758,7 @@
         <v>695</v>
       </c>
       <c r="C310" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D310">
         <v>68</v>
@@ -9772,7 +9778,7 @@
         <v>696</v>
       </c>
       <c r="C311" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D311">
         <v>32</v>
@@ -9792,7 +9798,7 @@
         <v>697</v>
       </c>
       <c r="C312" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D312">
         <v>7</v>
@@ -9812,7 +9818,7 @@
         <v>698</v>
       </c>
       <c r="C313" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D313">
         <v>91</v>
@@ -9832,7 +9838,7 @@
         <v>699</v>
       </c>
       <c r="C314" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D314">
         <v>57</v>
@@ -9852,7 +9858,7 @@
         <v>700</v>
       </c>
       <c r="C315" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D315">
         <v>60</v>
@@ -9872,7 +9878,7 @@
         <v>701</v>
       </c>
       <c r="C316" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D316">
         <v>57</v>
@@ -9892,7 +9898,7 @@
         <v>702</v>
       </c>
       <c r="C317" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D317">
         <v>67</v>
@@ -9912,7 +9918,7 @@
         <v>703</v>
       </c>
       <c r="C318" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D318">
         <v>9</v>
@@ -9932,7 +9938,7 @@
         <v>704</v>
       </c>
       <c r="C319" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D319">
         <v>60</v>
@@ -9952,7 +9958,7 @@
         <v>705</v>
       </c>
       <c r="C320" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D320">
         <v>31</v>
@@ -9972,7 +9978,7 @@
         <v>706</v>
       </c>
       <c r="C321" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D321">
         <v>29</v>
@@ -9992,7 +9998,7 @@
         <v>707</v>
       </c>
       <c r="C322" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D322">
         <v>67</v>
@@ -10012,7 +10018,7 @@
         <v>708</v>
       </c>
       <c r="C323" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D323">
         <v>14</v>
@@ -10032,7 +10038,7 @@
         <v>709</v>
       </c>
       <c r="C324" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D324">
         <v>94</v>
@@ -10052,7 +10058,7 @@
         <v>710</v>
       </c>
       <c r="C325" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D325">
         <v>50</v>
@@ -10072,7 +10078,7 @@
         <v>711</v>
       </c>
       <c r="C326" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D326">
         <v>64</v>
@@ -10092,7 +10098,7 @@
         <v>712</v>
       </c>
       <c r="C327" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D327">
         <v>20</v>
@@ -10112,7 +10118,7 @@
         <v>713</v>
       </c>
       <c r="C328" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D328">
         <v>56</v>
@@ -10132,7 +10138,7 @@
         <v>714</v>
       </c>
       <c r="C329" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D329">
         <v>33</v>
@@ -10152,7 +10158,7 @@
         <v>715</v>
       </c>
       <c r="C330" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D330">
         <v>38</v>
@@ -10172,7 +10178,7 @@
         <v>716</v>
       </c>
       <c r="C331" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D331">
         <v>31</v>
@@ -10192,7 +10198,7 @@
         <v>717</v>
       </c>
       <c r="C332" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D332">
         <v>92</v>
@@ -10212,7 +10218,7 @@
         <v>718</v>
       </c>
       <c r="C333" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D333">
         <v>5</v>
@@ -10232,7 +10238,7 @@
         <v>719</v>
       </c>
       <c r="C334" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D334">
         <v>97</v>
@@ -10252,7 +10258,7 @@
         <v>720</v>
       </c>
       <c r="C335" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D335">
         <v>71</v>
@@ -10272,7 +10278,7 @@
         <v>721</v>
       </c>
       <c r="C336" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D336">
         <v>30</v>
@@ -10292,7 +10298,7 @@
         <v>722</v>
       </c>
       <c r="C337" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D337">
         <v>58</v>
@@ -10312,7 +10318,7 @@
         <v>723</v>
       </c>
       <c r="C338" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D338">
         <v>5</v>
@@ -10332,7 +10338,7 @@
         <v>724</v>
       </c>
       <c r="C339" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D339">
         <v>93</v>
@@ -10352,7 +10358,7 @@
         <v>725</v>
       </c>
       <c r="C340" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D340">
         <v>60</v>
@@ -10372,7 +10378,7 @@
         <v>726</v>
       </c>
       <c r="C341" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D341">
         <v>82</v>
@@ -10392,7 +10398,7 @@
         <v>727</v>
       </c>
       <c r="C342" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D342">
         <v>36</v>
@@ -10412,7 +10418,7 @@
         <v>728</v>
       </c>
       <c r="C343" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D343">
         <v>2</v>
@@ -10432,7 +10438,7 @@
         <v>729</v>
       </c>
       <c r="C344" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D344">
         <v>19</v>
@@ -10452,7 +10458,7 @@
         <v>730</v>
       </c>
       <c r="C345" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D345">
         <v>27</v>
@@ -10472,7 +10478,7 @@
         <v>731</v>
       </c>
       <c r="C346" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D346">
         <v>2</v>
@@ -10492,7 +10498,7 @@
         <v>732</v>
       </c>
       <c r="C347" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D347">
         <v>10</v>
@@ -10512,7 +10518,7 @@
         <v>733</v>
       </c>
       <c r="C348" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D348">
         <v>32</v>
@@ -10532,7 +10538,7 @@
         <v>734</v>
       </c>
       <c r="C349" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D349">
         <v>21</v>
@@ -10552,7 +10558,7 @@
         <v>735</v>
       </c>
       <c r="C350" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D350">
         <v>55</v>
@@ -10572,7 +10578,7 @@
         <v>736</v>
       </c>
       <c r="C351" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D351">
         <v>65</v>
@@ -10592,7 +10598,7 @@
         <v>737</v>
       </c>
       <c r="C352" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D352">
         <v>56</v>
@@ -10612,7 +10618,7 @@
         <v>738</v>
       </c>
       <c r="C353" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D353">
         <v>37</v>
@@ -10632,7 +10638,7 @@
         <v>739</v>
       </c>
       <c r="C354" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D354">
         <v>21</v>
@@ -10652,7 +10658,7 @@
         <v>740</v>
       </c>
       <c r="C355" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D355">
         <v>49</v>
@@ -10672,7 +10678,7 @@
         <v>741</v>
       </c>
       <c r="C356" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D356">
         <v>16</v>
@@ -10692,7 +10698,7 @@
         <v>675</v>
       </c>
       <c r="C357" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D357">
         <v>89</v>
@@ -10712,7 +10718,7 @@
         <v>742</v>
       </c>
       <c r="C358" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D358">
         <v>89</v>
@@ -10732,7 +10738,7 @@
         <v>743</v>
       </c>
       <c r="C359" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D359">
         <v>93</v>
@@ -10752,7 +10758,7 @@
         <v>744</v>
       </c>
       <c r="C360" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D360">
         <v>90</v>
@@ -10772,7 +10778,7 @@
         <v>745</v>
       </c>
       <c r="C361" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D361">
         <v>46</v>
@@ -10792,7 +10798,7 @@
         <v>746</v>
       </c>
       <c r="C362" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D362">
         <v>30</v>
@@ -10812,7 +10818,7 @@
         <v>747</v>
       </c>
       <c r="C363" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D363">
         <v>13</v>
@@ -10832,7 +10838,7 @@
         <v>748</v>
       </c>
       <c r="C364" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D364">
         <v>93</v>
@@ -10852,7 +10858,7 @@
         <v>749</v>
       </c>
       <c r="C365" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D365">
         <v>21</v>
@@ -10872,7 +10878,7 @@
         <v>750</v>
       </c>
       <c r="C366" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D366">
         <v>5</v>
@@ -10892,7 +10898,7 @@
         <v>751</v>
       </c>
       <c r="C367" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D367">
         <v>83</v>
@@ -10912,7 +10918,7 @@
         <v>752</v>
       </c>
       <c r="C368" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D368">
         <v>64</v>
@@ -10932,7 +10938,7 @@
         <v>753</v>
       </c>
       <c r="C369" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D369">
         <v>67</v>
@@ -10952,7 +10958,7 @@
         <v>754</v>
       </c>
       <c r="C370" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D370">
         <v>58</v>
@@ -10972,7 +10978,7 @@
         <v>529</v>
       </c>
       <c r="C371" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D371">
         <v>83</v>
@@ -10992,7 +10998,7 @@
         <v>755</v>
       </c>
       <c r="C372" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D372">
         <v>2</v>
@@ -11012,7 +11018,7 @@
         <v>756</v>
       </c>
       <c r="C373" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D373">
         <v>33</v>
@@ -11032,7 +11038,7 @@
         <v>757</v>
       </c>
       <c r="C374" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D374">
         <v>86</v>
@@ -11052,7 +11058,7 @@
         <v>758</v>
       </c>
       <c r="C375" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D375">
         <v>76</v>
@@ -11072,7 +11078,7 @@
         <v>759</v>
       </c>
       <c r="C376" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D376">
         <v>47</v>
@@ -11092,7 +11098,7 @@
         <v>760</v>
       </c>
       <c r="C377" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D377">
         <v>45</v>
@@ -11112,7 +11118,7 @@
         <v>761</v>
       </c>
       <c r="C378" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D378">
         <v>3</v>
@@ -11132,7 +11138,7 @@
         <v>762</v>
       </c>
       <c r="C379" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D379">
         <v>44</v>
@@ -11152,7 +11158,7 @@
         <v>763</v>
       </c>
       <c r="C380" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D380">
         <v>93</v>
@@ -11172,7 +11178,7 @@
         <v>764</v>
       </c>
       <c r="C381" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D381">
         <v>60</v>
@@ -11192,7 +11198,7 @@
         <v>742</v>
       </c>
       <c r="C382" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D382">
         <v>48</v>
@@ -11212,7 +11218,7 @@
         <v>743</v>
       </c>
       <c r="C383" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D383">
         <v>46</v>
@@ -11232,7 +11238,7 @@
         <v>765</v>
       </c>
       <c r="C384" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D384">
         <v>52</v>
@@ -11252,7 +11258,7 @@
         <v>751</v>
       </c>
       <c r="C385" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D385">
         <v>22</v>
@@ -11272,7 +11278,7 @@
         <v>752</v>
       </c>
       <c r="C386" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D386">
         <v>7</v>
@@ -11292,7 +11298,7 @@
         <v>766</v>
       </c>
       <c r="C387" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D387">
         <v>60</v>
@@ -11312,7 +11318,7 @@
         <v>767</v>
       </c>
       <c r="C388" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D388">
         <v>46</v>
@@ -11332,7 +11338,7 @@
         <v>768</v>
       </c>
       <c r="C389" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D389">
         <v>57</v>
@@ -11352,7 +11358,7 @@
         <v>769</v>
       </c>
       <c r="C390" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D390">
         <v>3</v>
@@ -11372,7 +11378,7 @@
         <v>770</v>
       </c>
       <c r="C391" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D391">
         <v>58</v>
@@ -11392,7 +11398,7 @@
         <v>771</v>
       </c>
       <c r="C392" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D392">
         <v>72</v>
@@ -11412,7 +11418,7 @@
         <v>772</v>
       </c>
       <c r="C393" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D393">
         <v>75</v>
@@ -11432,7 +11438,7 @@
         <v>773</v>
       </c>
       <c r="C394" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D394">
         <v>49</v>
@@ -11452,7 +11458,7 @@
         <v>774</v>
       </c>
       <c r="C395" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D395">
         <v>63</v>
@@ -11472,7 +11478,7 @@
         <v>775</v>
       </c>
       <c r="C396" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D396">
         <v>68</v>
@@ -11492,7 +11498,7 @@
         <v>776</v>
       </c>
       <c r="C397" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D397">
         <v>65</v>
@@ -11512,7 +11518,7 @@
         <v>777</v>
       </c>
       <c r="C398" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D398">
         <v>85</v>
@@ -11532,7 +11538,7 @@
         <v>778</v>
       </c>
       <c r="C399" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D399">
         <v>85</v>
@@ -11552,7 +11558,7 @@
         <v>779</v>
       </c>
       <c r="C400" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D400">
         <v>63</v>
@@ -11572,7 +11578,7 @@
         <v>780</v>
       </c>
       <c r="C401" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D401">
         <v>38</v>
@@ -11592,7 +11598,7 @@
         <v>781</v>
       </c>
       <c r="C402" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D402">
         <v>16</v>
@@ -11612,7 +11618,7 @@
         <v>782</v>
       </c>
       <c r="C403" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D403">
         <v>80</v>
@@ -11632,7 +11638,7 @@
         <v>783</v>
       </c>
       <c r="C404" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D404">
         <v>89</v>
@@ -11652,7 +11658,7 @@
         <v>784</v>
       </c>
       <c r="C405" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D405">
         <v>8</v>
@@ -11672,7 +11678,7 @@
         <v>785</v>
       </c>
       <c r="C406" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D406">
         <v>48</v>
@@ -11692,7 +11698,7 @@
         <v>786</v>
       </c>
       <c r="C407" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D407">
         <v>96</v>
@@ -11712,7 +11718,7 @@
         <v>787</v>
       </c>
       <c r="C408" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D408">
         <v>43</v>
@@ -11732,7 +11738,7 @@
         <v>788</v>
       </c>
       <c r="C409" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D409">
         <v>44</v>
@@ -11752,7 +11758,7 @@
         <v>789</v>
       </c>
       <c r="C410" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D410">
         <v>98</v>
@@ -11772,7 +11778,7 @@
         <v>790</v>
       </c>
       <c r="C411" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D411">
         <v>58</v>
@@ -11792,7 +11798,7 @@
         <v>791</v>
       </c>
       <c r="C412" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D412">
         <v>4</v>
@@ -11812,7 +11818,7 @@
         <v>792</v>
       </c>
       <c r="C413" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D413">
         <v>10</v>
@@ -11832,7 +11838,7 @@
         <v>793</v>
       </c>
       <c r="C414" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D414">
         <v>46</v>
@@ -11852,7 +11858,7 @@
         <v>794</v>
       </c>
       <c r="C415" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D415">
         <v>45</v>
@@ -11872,7 +11878,7 @@
         <v>795</v>
       </c>
       <c r="C416" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D416">
         <v>46</v>
@@ -11892,7 +11898,7 @@
         <v>794</v>
       </c>
       <c r="C417" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D417">
         <v>41</v>
@@ -11912,7 +11918,7 @@
         <v>796</v>
       </c>
       <c r="C418" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D418">
         <v>18</v>
@@ -11932,7 +11938,7 @@
         <v>797</v>
       </c>
       <c r="C419" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D419">
         <v>38</v>
@@ -11952,7 +11958,7 @@
         <v>798</v>
       </c>
       <c r="C420" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -11972,7 +11978,7 @@
         <v>799</v>
       </c>
       <c r="C421" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D421">
         <v>35</v>
@@ -11992,7 +11998,7 @@
         <v>800</v>
       </c>
       <c r="C422" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D422">
         <v>77</v>
@@ -12012,7 +12018,7 @@
         <v>801</v>
       </c>
       <c r="C423" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D423">
         <v>93</v>
@@ -12032,7 +12038,7 @@
         <v>802</v>
       </c>
       <c r="C424" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D424">
         <v>61</v>
@@ -12052,7 +12058,7 @@
         <v>803</v>
       </c>
       <c r="C425" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D425">
         <v>63</v>
@@ -12072,7 +12078,7 @@
         <v>804</v>
       </c>
       <c r="C426" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D426">
         <v>8</v>
@@ -12092,7 +12098,7 @@
         <v>805</v>
       </c>
       <c r="C427" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D427">
         <v>46</v>
@@ -12112,7 +12118,7 @@
         <v>806</v>
       </c>
       <c r="C428" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D428">
         <v>44</v>
@@ -12132,7 +12138,7 @@
         <v>807</v>
       </c>
       <c r="C429" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D429">
         <v>21</v>
@@ -12152,7 +12158,7 @@
         <v>808</v>
       </c>
       <c r="C430" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D430">
         <v>13</v>
@@ -12172,7 +12178,7 @@
         <v>809</v>
       </c>
       <c r="C431" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D431">
         <v>41</v>
@@ -12192,7 +12198,7 @@
         <v>810</v>
       </c>
       <c r="C432" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D432">
         <v>86</v>
@@ -12212,7 +12218,7 @@
         <v>811</v>
       </c>
       <c r="C433" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D433">
         <v>22</v>
@@ -12232,7 +12238,7 @@
         <v>812</v>
       </c>
       <c r="C434" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D434">
         <v>98</v>
@@ -12252,7 +12258,7 @@
         <v>813</v>
       </c>
       <c r="C435" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D435">
         <v>74</v>
@@ -12272,7 +12278,7 @@
         <v>814</v>
       </c>
       <c r="C436" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D436">
         <v>57</v>
@@ -12292,7 +12298,7 @@
         <v>815</v>
       </c>
       <c r="C437" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D437">
         <v>40</v>
@@ -12312,7 +12318,7 @@
         <v>816</v>
       </c>
       <c r="C438" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D438">
         <v>25</v>
@@ -12332,7 +12338,7 @@
         <v>817</v>
       </c>
       <c r="C439" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D439">
         <v>83</v>
@@ -12352,7 +12358,7 @@
         <v>818</v>
       </c>
       <c r="C440" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D440">
         <v>14</v>
@@ -12372,7 +12378,7 @@
         <v>819</v>
       </c>
       <c r="C441" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D441">
         <v>30</v>
@@ -12392,7 +12398,7 @@
         <v>820</v>
       </c>
       <c r="C442" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D442">
         <v>89</v>
@@ -12412,7 +12418,7 @@
         <v>821</v>
       </c>
       <c r="C443" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -12432,7 +12438,7 @@
         <v>822</v>
       </c>
       <c r="C444" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D444">
         <v>53</v>
@@ -12452,7 +12458,7 @@
         <v>823</v>
       </c>
       <c r="C445" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D445">
         <v>40</v>
@@ -12472,7 +12478,7 @@
         <v>824</v>
       </c>
       <c r="C446" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D446">
         <v>41</v>
@@ -12492,7 +12498,7 @@
         <v>825</v>
       </c>
       <c r="C447" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D447">
         <v>1</v>
@@ -12512,7 +12518,7 @@
         <v>826</v>
       </c>
       <c r="C448" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D448">
         <v>63</v>
@@ -12532,7 +12538,7 @@
         <v>827</v>
       </c>
       <c r="C449" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D449">
         <v>97</v>
@@ -12552,7 +12558,7 @@
         <v>828</v>
       </c>
       <c r="C450" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D450">
         <v>32</v>
@@ -12572,7 +12578,7 @@
         <v>829</v>
       </c>
       <c r="C451" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D451">
         <v>54</v>
@@ -12592,7 +12598,7 @@
         <v>830</v>
       </c>
       <c r="C452" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D452">
         <v>71</v>
@@ -12612,7 +12618,7 @@
         <v>831</v>
       </c>
       <c r="C453" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D453">
         <v>3</v>
@@ -12632,7 +12638,7 @@
         <v>832</v>
       </c>
       <c r="C454" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D454">
         <v>90</v>
@@ -12652,7 +12658,7 @@
         <v>833</v>
       </c>
       <c r="C455" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D455">
         <v>56</v>
@@ -12672,7 +12678,7 @@
         <v>834</v>
       </c>
       <c r="C456" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D456">
         <v>14</v>
@@ -12692,7 +12698,7 @@
         <v>835</v>
       </c>
       <c r="C457" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D457">
         <v>59</v>
@@ -12712,7 +12718,7 @@
         <v>836</v>
       </c>
       <c r="C458" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D458">
         <v>91</v>
@@ -12732,7 +12738,7 @@
         <v>837</v>
       </c>
       <c r="C459" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D459">
         <v>98</v>
@@ -12752,7 +12758,7 @@
         <v>838</v>
       </c>
       <c r="C460" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D460">
         <v>12</v>
@@ -12772,7 +12778,7 @@
         <v>839</v>
       </c>
       <c r="C461" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D461">
         <v>13</v>
@@ -12792,7 +12798,7 @@
         <v>840</v>
       </c>
       <c r="C462" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D462">
         <v>94</v>
@@ -12812,7 +12818,7 @@
         <v>841</v>
       </c>
       <c r="C463" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D463">
         <v>15</v>
@@ -12832,7 +12838,7 @@
         <v>842</v>
       </c>
       <c r="C464" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D464">
         <v>74</v>
@@ -12852,7 +12858,7 @@
         <v>843</v>
       </c>
       <c r="C465" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D465">
         <v>17</v>
@@ -12872,7 +12878,7 @@
         <v>844</v>
       </c>
       <c r="C466" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D466">
         <v>36</v>
@@ -12892,7 +12898,7 @@
         <v>845</v>
       </c>
       <c r="C467" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D467">
         <v>98</v>
@@ -12912,7 +12918,7 @@
         <v>846</v>
       </c>
       <c r="C468" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D468">
         <v>90</v>
@@ -12932,7 +12938,7 @@
         <v>847</v>
       </c>
       <c r="C469" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D469">
         <v>97</v>
@@ -12952,7 +12958,7 @@
         <v>848</v>
       </c>
       <c r="C470" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D470">
         <v>80</v>
@@ -12972,7 +12978,7 @@
         <v>849</v>
       </c>
       <c r="C471" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D471">
         <v>16</v>
@@ -12992,7 +12998,7 @@
         <v>850</v>
       </c>
       <c r="C472" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D472">
         <v>5</v>
@@ -13012,7 +13018,7 @@
         <v>851</v>
       </c>
       <c r="C473" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D473">
         <v>65</v>
@@ -13032,7 +13038,7 @@
         <v>852</v>
       </c>
       <c r="C474" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D474">
         <v>38</v>
@@ -13052,7 +13058,7 @@
         <v>853</v>
       </c>
       <c r="C475" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D475">
         <v>54</v>
@@ -13072,7 +13078,7 @@
         <v>854</v>
       </c>
       <c r="C476" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D476">
         <v>73</v>
@@ -13092,7 +13098,7 @@
         <v>855</v>
       </c>
       <c r="C477" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D477">
         <v>59</v>
@@ -13112,7 +13118,7 @@
         <v>856</v>
       </c>
       <c r="C478" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D478">
         <v>67</v>
@@ -13132,7 +13138,7 @@
         <v>857</v>
       </c>
       <c r="C479" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D479">
         <v>5</v>
@@ -13152,7 +13158,7 @@
         <v>858</v>
       </c>
       <c r="C480" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D480">
         <v>62</v>
@@ -13172,7 +13178,7 @@
         <v>859</v>
       </c>
       <c r="C481" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D481">
         <v>70</v>
@@ -13192,7 +13198,7 @@
         <v>860</v>
       </c>
       <c r="C482" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D482">
         <v>26</v>
@@ -13212,7 +13218,7 @@
         <v>861</v>
       </c>
       <c r="C483" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D483">
         <v>66</v>
@@ -13232,7 +13238,7 @@
         <v>862</v>
       </c>
       <c r="C484" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D484">
         <v>43</v>
@@ -13252,7 +13258,7 @@
         <v>863</v>
       </c>
       <c r="C485" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D485">
         <v>91</v>
@@ -13272,7 +13278,7 @@
         <v>864</v>
       </c>
       <c r="C486" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D486">
         <v>18</v>
@@ -13292,7 +13298,7 @@
         <v>865</v>
       </c>
       <c r="C487" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D487">
         <v>23</v>
@@ -13312,7 +13318,7 @@
         <v>866</v>
       </c>
       <c r="C488" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D488">
         <v>53</v>
@@ -13332,7 +13338,7 @@
         <v>867</v>
       </c>
       <c r="C489" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D489">
         <v>64</v>
@@ -13352,7 +13358,7 @@
         <v>868</v>
       </c>
       <c r="C490" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D490">
         <v>30</v>
@@ -13372,7 +13378,7 @@
         <v>869</v>
       </c>
       <c r="C491" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D491">
         <v>54</v>
@@ -13392,7 +13398,7 @@
         <v>870</v>
       </c>
       <c r="C492" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D492">
         <v>33</v>
@@ -13412,7 +13418,7 @@
         <v>871</v>
       </c>
       <c r="C493" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D493">
         <v>99</v>
@@ -13432,7 +13438,7 @@
         <v>872</v>
       </c>
       <c r="C494" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D494">
         <v>54</v>
@@ -13452,7 +13458,7 @@
         <v>873</v>
       </c>
       <c r="C495" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D495">
         <v>83</v>
@@ -13472,7 +13478,7 @@
         <v>874</v>
       </c>
       <c r="C496" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D496">
         <v>62</v>
@@ -13492,7 +13498,7 @@
         <v>875</v>
       </c>
       <c r="C497" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D497">
         <v>2</v>
@@ -13512,7 +13518,7 @@
         <v>876</v>
       </c>
       <c r="C498" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D498">
         <v>93</v>
@@ -13532,7 +13538,7 @@
         <v>877</v>
       </c>
       <c r="C499" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D499">
         <v>8</v>
@@ -13552,7 +13558,7 @@
         <v>878</v>
       </c>
       <c r="C500" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D500">
         <v>69</v>
@@ -13572,7 +13578,7 @@
         <v>879</v>
       </c>
       <c r="C501" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D501">
         <v>59</v>
@@ -13592,7 +13598,7 @@
         <v>880</v>
       </c>
       <c r="C502" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D502">
         <v>8</v>
@@ -13612,7 +13618,7 @@
         <v>881</v>
       </c>
       <c r="C503" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D503">
         <v>89</v>
@@ -13632,7 +13638,7 @@
         <v>882</v>
       </c>
       <c r="C504" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D504">
         <v>61</v>
@@ -13652,7 +13658,7 @@
         <v>883</v>
       </c>
       <c r="C505" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D505">
         <v>79</v>
@@ -13672,7 +13678,7 @@
         <v>884</v>
       </c>
       <c r="C506" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D506">
         <v>88</v>
@@ -13692,7 +13698,7 @@
         <v>885</v>
       </c>
       <c r="C507" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D507">
         <v>14</v>
@@ -13712,7 +13718,7 @@
         <v>886</v>
       </c>
       <c r="C508" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D508">
         <v>30</v>
@@ -13732,7 +13738,7 @@
         <v>887</v>
       </c>
       <c r="C509" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D509">
         <v>84</v>
@@ -13752,7 +13758,7 @@
         <v>888</v>
       </c>
       <c r="C510" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D510">
         <v>82</v>
@@ -13772,7 +13778,7 @@
         <v>889</v>
       </c>
       <c r="C511" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D511">
         <v>34</v>
@@ -13792,7 +13798,7 @@
         <v>890</v>
       </c>
       <c r="C512" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D512">
         <v>5</v>
@@ -13812,7 +13818,7 @@
         <v>891</v>
       </c>
       <c r="C513" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D513">
         <v>18</v>
@@ -13832,7 +13838,7 @@
         <v>892</v>
       </c>
       <c r="C514" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D514">
         <v>20</v>
@@ -13852,7 +13858,7 @@
         <v>893</v>
       </c>
       <c r="C515" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D515">
         <v>99</v>
@@ -13872,7 +13878,7 @@
         <v>894</v>
       </c>
       <c r="C516" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D516">
         <v>84</v>
@@ -13892,7 +13898,7 @@
         <v>895</v>
       </c>
       <c r="C517" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D517">
         <v>70</v>
@@ -13912,7 +13918,7 @@
         <v>896</v>
       </c>
       <c r="C518" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D518">
         <v>49</v>
@@ -13932,7 +13938,7 @@
         <v>897</v>
       </c>
       <c r="C519" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D519">
         <v>66</v>
@@ -13952,7 +13958,7 @@
         <v>898</v>
       </c>
       <c r="C520" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D520">
         <v>49</v>
@@ -13972,7 +13978,7 @@
         <v>899</v>
       </c>
       <c r="C521" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D521">
         <v>51</v>
@@ -13992,7 +13998,7 @@
         <v>900</v>
       </c>
       <c r="C522" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D522">
         <v>87</v>
@@ -14012,7 +14018,7 @@
         <v>901</v>
       </c>
       <c r="C523" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D523">
         <v>73</v>
@@ -14032,7 +14038,7 @@
         <v>902</v>
       </c>
       <c r="C524" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D524">
         <v>71</v>
@@ -14052,7 +14058,7 @@
         <v>903</v>
       </c>
       <c r="C525" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D525">
         <v>69</v>
@@ -14072,7 +14078,7 @@
         <v>904</v>
       </c>
       <c r="C526" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D526">
         <v>34</v>
@@ -14092,7 +14098,7 @@
         <v>905</v>
       </c>
       <c r="C527" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D527">
         <v>70</v>
@@ -14112,7 +14118,7 @@
         <v>906</v>
       </c>
       <c r="C528" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D528">
         <v>6</v>
@@ -14132,7 +14138,7 @@
         <v>907</v>
       </c>
       <c r="C529" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D529">
         <v>79</v>
@@ -14152,7 +14158,7 @@
         <v>908</v>
       </c>
       <c r="C530" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D530">
         <v>75</v>
@@ -14172,7 +14178,7 @@
         <v>909</v>
       </c>
       <c r="C531" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D531">
         <v>70</v>
@@ -14192,7 +14198,7 @@
         <v>910</v>
       </c>
       <c r="C532" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D532">
         <v>9</v>
@@ -14212,7 +14218,7 @@
         <v>911</v>
       </c>
       <c r="C533" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D533">
         <v>58</v>
@@ -14232,7 +14238,7 @@
         <v>912</v>
       </c>
       <c r="C534" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D534">
         <v>46</v>
@@ -14252,7 +14258,7 @@
         <v>913</v>
       </c>
       <c r="C535" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D535">
         <v>8</v>
@@ -14272,7 +14278,7 @@
         <v>914</v>
       </c>
       <c r="C536" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D536">
         <v>21</v>
@@ -14292,7 +14298,7 @@
         <v>915</v>
       </c>
       <c r="C537" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D537">
         <v>32</v>
@@ -14312,7 +14318,7 @@
         <v>916</v>
       </c>
       <c r="C538" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D538">
         <v>13</v>
@@ -14332,7 +14338,7 @@
         <v>917</v>
       </c>
       <c r="C539" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D539">
         <v>69</v>
@@ -14352,7 +14358,7 @@
         <v>918</v>
       </c>
       <c r="C540" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D540">
         <v>39</v>
@@ -14372,7 +14378,7 @@
         <v>919</v>
       </c>
       <c r="C541" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D541">
         <v>74</v>
@@ -14392,7 +14398,7 @@
         <v>920</v>
       </c>
       <c r="C542" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D542">
         <v>12</v>
@@ -14412,7 +14418,7 @@
         <v>921</v>
       </c>
       <c r="C543" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D543">
         <v>44</v>
@@ -14432,7 +14438,7 @@
         <v>922</v>
       </c>
       <c r="C544" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D544">
         <v>23</v>
@@ -14452,7 +14458,7 @@
         <v>923</v>
       </c>
       <c r="C545" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D545">
         <v>72</v>
@@ -14472,7 +14478,7 @@
         <v>924</v>
       </c>
       <c r="C546" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D546">
         <v>16</v>
@@ -14492,7 +14498,7 @@
         <v>925</v>
       </c>
       <c r="C547" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D547">
         <v>19</v>
@@ -14512,7 +14518,7 @@
         <v>926</v>
       </c>
       <c r="C548" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D548">
         <v>9</v>
@@ -14532,7 +14538,7 @@
         <v>927</v>
       </c>
       <c r="C549" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D549">
         <v>36</v>
@@ -14552,7 +14558,7 @@
         <v>928</v>
       </c>
       <c r="C550" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D550">
         <v>59</v>
@@ -14572,7 +14578,7 @@
         <v>929</v>
       </c>
       <c r="C551" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D551">
         <v>49</v>
@@ -14592,7 +14598,7 @@
         <v>930</v>
       </c>
       <c r="C552" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D552">
         <v>17</v>
@@ -14612,7 +14618,7 @@
         <v>931</v>
       </c>
       <c r="C553" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D553">
         <v>44</v>
@@ -14632,7 +14638,7 @@
         <v>932</v>
       </c>
       <c r="C554" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D554">
         <v>83</v>
@@ -14652,7 +14658,7 @@
         <v>933</v>
       </c>
       <c r="C555" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D555">
         <v>50</v>
@@ -14672,7 +14678,7 @@
         <v>934</v>
       </c>
       <c r="C556" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D556">
         <v>32</v>
@@ -14692,7 +14698,7 @@
         <v>935</v>
       </c>
       <c r="C557" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D557">
         <v>44</v>
@@ -14712,7 +14718,7 @@
         <v>936</v>
       </c>
       <c r="C558" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D558">
         <v>12</v>
@@ -14732,7 +14738,7 @@
         <v>937</v>
       </c>
       <c r="C559" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D559">
         <v>12</v>
@@ -14752,7 +14758,7 @@
         <v>938</v>
       </c>
       <c r="C560" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D560">
         <v>75</v>
@@ -14772,7 +14778,7 @@
         <v>939</v>
       </c>
       <c r="C561" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D561">
         <v>55</v>
@@ -14792,7 +14798,7 @@
         <v>940</v>
       </c>
       <c r="C562" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D562">
         <v>75</v>
@@ -14812,7 +14818,7 @@
         <v>941</v>
       </c>
       <c r="C563" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D563">
         <v>89</v>
@@ -14832,7 +14838,7 @@
         <v>596</v>
       </c>
       <c r="C564" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D564">
         <v>60</v>
@@ -14852,7 +14858,7 @@
         <v>597</v>
       </c>
       <c r="C565" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D565">
         <v>53</v>
@@ -14872,7 +14878,7 @@
         <v>598</v>
       </c>
       <c r="C566" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D566">
         <v>86</v>
@@ -14892,7 +14898,7 @@
         <v>599</v>
       </c>
       <c r="C567" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D567">
         <v>20</v>
@@ -14912,7 +14918,7 @@
         <v>942</v>
       </c>
       <c r="C568" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D568">
         <v>29</v>
@@ -14932,7 +14938,7 @@
         <v>943</v>
       </c>
       <c r="C569" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D569">
         <v>38</v>
@@ -14952,7 +14958,7 @@
         <v>944</v>
       </c>
       <c r="C570" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D570">
         <v>21</v>
@@ -14972,7 +14978,7 @@
         <v>945</v>
       </c>
       <c r="C571" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D571">
         <v>8</v>
@@ -14992,7 +14998,7 @@
         <v>946</v>
       </c>
       <c r="C572" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D572">
         <v>57</v>
@@ -15012,7 +15018,7 @@
         <v>947</v>
       </c>
       <c r="C573" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D573">
         <v>44</v>
@@ -15032,7 +15038,7 @@
         <v>948</v>
       </c>
       <c r="C574" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D574">
         <v>59</v>
@@ -15052,7 +15058,7 @@
         <v>949</v>
       </c>
       <c r="C575" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D575">
         <v>85</v>
@@ -15072,7 +15078,7 @@
         <v>950</v>
       </c>
       <c r="C576" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D576">
         <v>22</v>
@@ -15092,7 +15098,7 @@
         <v>951</v>
       </c>
       <c r="C577" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D577">
         <v>23</v>
@@ -15112,7 +15118,7 @@
         <v>952</v>
       </c>
       <c r="C578" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D578">
         <v>40</v>
@@ -15132,7 +15138,7 @@
         <v>953</v>
       </c>
       <c r="C579" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D579">
         <v>34</v>
@@ -15152,7 +15158,7 @@
         <v>954</v>
       </c>
       <c r="C580" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D580">
         <v>47</v>
@@ -15172,7 +15178,7 @@
         <v>955</v>
       </c>
       <c r="C581" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D581">
         <v>52</v>
@@ -15192,7 +15198,7 @@
         <v>956</v>
       </c>
       <c r="C582" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D582">
         <v>72</v>
@@ -15212,7 +15218,7 @@
         <v>957</v>
       </c>
       <c r="C583" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D583">
         <v>28</v>
@@ -15232,7 +15238,7 @@
         <v>958</v>
       </c>
       <c r="C584" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D584">
         <v>47</v>
@@ -15252,7 +15258,7 @@
         <v>959</v>
       </c>
       <c r="C585" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D585">
         <v>76</v>
@@ -15272,7 +15278,7 @@
         <v>960</v>
       </c>
       <c r="C586" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D586">
         <v>70</v>
@@ -15292,7 +15298,7 @@
         <v>961</v>
       </c>
       <c r="C587" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D587">
         <v>8</v>
@@ -15312,7 +15318,7 @@
         <v>962</v>
       </c>
       <c r="C588" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D588">
         <v>62</v>
@@ -15332,7 +15338,7 @@
         <v>963</v>
       </c>
       <c r="C589" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D589">
         <v>19</v>
@@ -15352,7 +15358,7 @@
         <v>964</v>
       </c>
       <c r="C590" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D590">
         <v>15</v>
@@ -15372,7 +15378,7 @@
         <v>965</v>
       </c>
       <c r="C591" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D591">
         <v>48</v>
@@ -15392,7 +15398,7 @@
         <v>966</v>
       </c>
       <c r="C592" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D592">
         <v>30</v>
@@ -15412,7 +15418,7 @@
         <v>967</v>
       </c>
       <c r="C593" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D593">
         <v>16</v>
@@ -15432,7 +15438,7 @@
         <v>968</v>
       </c>
       <c r="C594" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D594">
         <v>27</v>
@@ -15452,7 +15458,7 @@
         <v>969</v>
       </c>
       <c r="C595" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D595">
         <v>87</v>
@@ -15472,7 +15478,7 @@
         <v>970</v>
       </c>
       <c r="C596" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D596">
         <v>29</v>
@@ -15492,7 +15498,7 @@
         <v>971</v>
       </c>
       <c r="C597" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D597">
         <v>43</v>
@@ -15512,7 +15518,7 @@
         <v>972</v>
       </c>
       <c r="C598" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D598">
         <v>95</v>
@@ -15532,7 +15538,7 @@
         <v>973</v>
       </c>
       <c r="C599" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D599">
         <v>50</v>
@@ -15552,7 +15558,7 @@
         <v>974</v>
       </c>
       <c r="C600" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D600">
         <v>97</v>
@@ -15572,7 +15578,7 @@
         <v>975</v>
       </c>
       <c r="C601" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D601">
         <v>19</v>
@@ -15592,7 +15598,7 @@
         <v>976</v>
       </c>
       <c r="C602" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D602">
         <v>10</v>
@@ -15612,7 +15618,7 @@
         <v>977</v>
       </c>
       <c r="C603" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D603">
         <v>60</v>
@@ -15632,7 +15638,7 @@
         <v>978</v>
       </c>
       <c r="C604" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D604">
         <v>53</v>
@@ -15652,7 +15658,7 @@
         <v>979</v>
       </c>
       <c r="C605" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D605">
         <v>12</v>
@@ -15672,7 +15678,7 @@
         <v>980</v>
       </c>
       <c r="C606" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D606">
         <v>68</v>
@@ -15692,7 +15698,7 @@
         <v>981</v>
       </c>
       <c r="C607" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D607">
         <v>24</v>
@@ -15712,7 +15718,7 @@
         <v>982</v>
       </c>
       <c r="C608" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D608">
         <v>1</v>
@@ -15732,7 +15738,7 @@
         <v>983</v>
       </c>
       <c r="C609" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D609">
         <v>35</v>
@@ -15752,7 +15758,7 @@
         <v>969</v>
       </c>
       <c r="C610" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D610">
         <v>86</v>
@@ -15772,7 +15778,7 @@
         <v>970</v>
       </c>
       <c r="C611" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D611">
         <v>84</v>
@@ -15792,7 +15798,7 @@
         <v>984</v>
       </c>
       <c r="C612" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D612">
         <v>21</v>
@@ -15812,7 +15818,7 @@
         <v>985</v>
       </c>
       <c r="C613" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D613">
         <v>63</v>
@@ -15832,7 +15838,7 @@
         <v>986</v>
       </c>
       <c r="C614" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D614">
         <v>88</v>
@@ -15852,7 +15858,7 @@
         <v>987</v>
       </c>
       <c r="C615" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D615">
         <v>32</v>
@@ -15872,7 +15878,7 @@
         <v>988</v>
       </c>
       <c r="C616" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D616">
         <v>15</v>
@@ -15892,7 +15898,7 @@
         <v>989</v>
       </c>
       <c r="C617" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D617">
         <v>28</v>
@@ -15912,7 +15918,7 @@
         <v>990</v>
       </c>
       <c r="C618" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D618">
         <v>51</v>
@@ -15932,7 +15938,7 @@
         <v>991</v>
       </c>
       <c r="C619" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D619">
         <v>90</v>
@@ -15952,7 +15958,7 @@
         <v>992</v>
       </c>
       <c r="C620" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D620">
         <v>56</v>
@@ -15972,7 +15978,7 @@
         <v>993</v>
       </c>
       <c r="C621" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D621">
         <v>27</v>
@@ -15992,7 +15998,7 @@
         <v>994</v>
       </c>
       <c r="C622" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D622">
         <v>50</v>
@@ -16012,7 +16018,7 @@
         <v>995</v>
       </c>
       <c r="C623" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D623">
         <v>7</v>
@@ -16032,7 +16038,7 @@
         <v>996</v>
       </c>
       <c r="C624" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D624">
         <v>34</v>
@@ -16052,7 +16058,7 @@
         <v>997</v>
       </c>
       <c r="C625" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D625">
         <v>56</v>
@@ -16072,7 +16078,7 @@
         <v>998</v>
       </c>
       <c r="C626" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D626">
         <v>77</v>
@@ -16092,7 +16098,7 @@
         <v>999</v>
       </c>
       <c r="C627" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D627">
         <v>4</v>
@@ -16112,7 +16118,7 @@
         <v>1000</v>
       </c>
       <c r="C628" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D628">
         <v>14</v>
@@ -16132,7 +16138,7 @@
         <v>1001</v>
       </c>
       <c r="C629" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D629">
         <v>11</v>
@@ -16152,7 +16158,7 @@
         <v>1002</v>
       </c>
       <c r="C630" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D630">
         <v>52</v>
@@ -16172,7 +16178,7 @@
         <v>1003</v>
       </c>
       <c r="C631" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D631">
         <v>64</v>
@@ -16192,7 +16198,7 @@
         <v>1004</v>
       </c>
       <c r="C632" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D632">
         <v>97</v>
@@ -16212,7 +16218,7 @@
         <v>1005</v>
       </c>
       <c r="C633" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D633">
         <v>72</v>
@@ -16232,7 +16238,7 @@
         <v>1006</v>
       </c>
       <c r="C634" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D634">
         <v>4</v>
@@ -16252,7 +16258,7 @@
         <v>1007</v>
       </c>
       <c r="C635" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D635">
         <v>72</v>
@@ -16272,7 +16278,7 @@
         <v>1008</v>
       </c>
       <c r="C636" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D636">
         <v>59</v>
@@ -16292,7 +16298,7 @@
         <v>1009</v>
       </c>
       <c r="C637" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D637">
         <v>98</v>
@@ -16312,7 +16318,7 @@
         <v>1010</v>
       </c>
       <c r="C638" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D638">
         <v>45</v>
@@ -16332,7 +16338,7 @@
         <v>1011</v>
       </c>
       <c r="C639" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D639">
         <v>50</v>
@@ -16352,7 +16358,7 @@
         <v>1012</v>
       </c>
       <c r="C640" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D640">
         <v>62</v>
@@ -16372,7 +16378,7 @@
         <v>1013</v>
       </c>
       <c r="C641" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D641">
         <v>67</v>
@@ -16392,7 +16398,7 @@
         <v>1014</v>
       </c>
       <c r="C642" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D642">
         <v>27</v>
@@ -16412,7 +16418,7 @@
         <v>1015</v>
       </c>
       <c r="C643" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D643">
         <v>60</v>
@@ -16432,7 +16438,7 @@
         <v>1016</v>
       </c>
       <c r="C644" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D644">
         <v>88</v>
@@ -16452,7 +16458,7 @@
         <v>755</v>
       </c>
       <c r="C645" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D645">
         <v>11</v>
@@ -16472,7 +16478,7 @@
         <v>756</v>
       </c>
       <c r="C646" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D646">
         <v>13</v>
@@ -16492,7 +16498,7 @@
         <v>757</v>
       </c>
       <c r="C647" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D647">
         <v>40</v>
@@ -16512,7 +16518,7 @@
         <v>758</v>
       </c>
       <c r="C648" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D648">
         <v>44</v>
@@ -16532,7 +16538,7 @@
         <v>759</v>
       </c>
       <c r="C649" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D649">
         <v>61</v>
@@ -16552,7 +16558,7 @@
         <v>760</v>
       </c>
       <c r="C650" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D650">
         <v>17</v>
@@ -16572,7 +16578,7 @@
         <v>761</v>
       </c>
       <c r="C651" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D651">
         <v>57</v>
@@ -16592,7 +16598,7 @@
         <v>762</v>
       </c>
       <c r="C652" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D652">
         <v>2</v>
@@ -16612,7 +16618,7 @@
         <v>742</v>
       </c>
       <c r="C653" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D653">
         <v>4</v>
@@ -16632,7 +16638,7 @@
         <v>743</v>
       </c>
       <c r="C654" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D654">
         <v>4</v>
@@ -16652,7 +16658,7 @@
         <v>766</v>
       </c>
       <c r="C655" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D655">
         <v>36</v>
@@ -16672,7 +16678,7 @@
         <v>767</v>
       </c>
       <c r="C656" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D656">
         <v>31</v>
@@ -16692,7 +16698,7 @@
         <v>1017</v>
       </c>
       <c r="C657" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D657">
         <v>61</v>
@@ -16712,7 +16718,7 @@
         <v>1018</v>
       </c>
       <c r="C658" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D658">
         <v>72</v>
@@ -16732,7 +16738,7 @@
         <v>1019</v>
       </c>
       <c r="C659" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D659">
         <v>38</v>
@@ -16752,7 +16758,7 @@
         <v>1020</v>
       </c>
       <c r="C660" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D660">
         <v>89</v>
@@ -16778,10 +16784,10 @@
         <v>66</v>
       </c>
       <c r="E661">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F661" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -16801,7 +16807,7 @@
         <v>297</v>
       </c>
       <c r="F662" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -16821,7 +16827,27 @@
         <v>66</v>
       </c>
       <c r="F663" t="s">
-        <v>1060</v>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6">
+      <c r="A664" t="s">
+        <v>394</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C664" t="s">
+        <v>394</v>
+      </c>
+      <c r="D664">
+        <v>12</v>
+      </c>
+      <c r="E664">
+        <v>60</v>
+      </c>
+      <c r="F664" t="s">
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
